--- a/Dehalogenation_colorimetric_assays/Fluoride_concentrations+normalized_activities.xlsx
+++ b/Dehalogenation_colorimetric_assays/Fluoride_concentrations+normalized_activities.xlsx
@@ -15,30 +15,18 @@
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Data!$C$80:$C$100</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Data!$D$80:$D$100</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Data!$M$80:$M$100</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Data!$N$80:$N$100</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Data!$C$132:$C$152</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Data!$D$132:$D$152</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Data!$E$132:$E$152</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Data!$F$132:$F$152</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Data!$G$132:$G$152</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Data!$H$132:$H$152</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Data!$I$132:$I$152</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Data!$J$132:$J$152</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Data!$E$80:$E$100</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Data!$K$132:$K$152</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Data!$L$132:$L$152</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Data!$M$132:$M$152</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Data!$N$132:$N$152</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Data!$F$80:$F$100</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Data!$G$80:$G$100</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Data!$H$80:$H$100</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Data!$I$80:$I$100</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Data!$J$80:$J$100</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Data!$K$80:$K$100</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Data!$L$80:$L$100</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$C$132:$C$152</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Data!$D$132:$D$152</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Data!$M$132:$M$152</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Data!$N$132:$N$152</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$E$132:$E$152</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Data!$F$132:$F$152</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$G$132:$G$152</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Data!$H$132:$H$152</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Data!$I$132:$I$152</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Data!$J$132:$J$152</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Data!$K$132:$K$152</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Data!$L$132:$L$152</definedName>
     <definedName name="MethodPointer1">-1201796400</definedName>
     <definedName name="MethodPointer2">434</definedName>
   </definedNames>
@@ -52,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="28">
   <si>
     <t>E</t>
   </si>
@@ -125,13 +113,26 @@
   <si>
     <t>SD of the fluoride concentration in the appropriately diluted sample [µM] n=3</t>
   </si>
+  <si>
+    <t>Pooled Standard deviation</t>
+  </si>
+  <si>
+    <t>Weighted Variance</t>
+  </si>
+  <si>
+    <t>Degrees of freedome for each sample</t>
+  </si>
+  <si>
+    <t>S pooled​=((Sum of Weighted Variances)/(​Sum of Degrees of Freedom))^0.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -181,7 +182,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -190,6 +191,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,62 +217,62 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1204,17 +1206,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC152"/>
+  <dimension ref="B2:BH152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
-      <selection activeCell="B92" sqref="A92:XFD92"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="T104" sqref="T104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
     <col min="3" max="14" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="15" max="33" width="8.7265625" style="1"/>
+    <col min="34" max="34" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="48" width="8.7265625" style="1"/>
+    <col min="49" max="49" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
@@ -5051,7 +5057,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>3</v>
       </c>
@@ -5092,7 +5098,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>2</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
@@ -5174,7 +5180,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5221,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
@@ -5256,7 +5262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>5</v>
       </c>
@@ -5338,7 +5344,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>4</v>
       </c>
@@ -5379,7 +5385,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
@@ -5420,7 +5426,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
@@ -5513,15 +5519,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>10</v>
       </c>
       <c r="Q78" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV78" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C79" s="1">
         <v>1</v>
       </c>
@@ -5594,57 +5606,129 @@
       <c r="AC79" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AH79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL79" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM79" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN79" s="1">
+        <v>7</v>
+      </c>
+      <c r="AO79" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP79" s="1">
+        <v>9</v>
+      </c>
+      <c r="AQ79" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR79" s="1">
+        <v>11</v>
+      </c>
+      <c r="AS79" s="1">
+        <v>12</v>
+      </c>
+      <c r="AW79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ79" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA79" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB79" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC79" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD79" s="1">
+        <v>8</v>
+      </c>
+      <c r="BE79" s="1">
+        <v>9</v>
+      </c>
+      <c r="BF79" s="1">
+        <v>10</v>
+      </c>
+      <c r="BG79" s="1">
+        <v>11</v>
+      </c>
+      <c r="BH79" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="3">
-        <f>IF(C5&lt;100,C5,R5)</f>
+        <f t="shared" ref="C80:C98" si="0">IF(C5&lt;100,C5,R5)</f>
         <v>30.329495500687774</v>
       </c>
       <c r="D80" s="3">
-        <f>IF(D5&lt;100,D5,S5)</f>
+        <f t="shared" ref="D80:D98" si="1">IF(D5&lt;100,D5,S5)</f>
         <v>15.428999321354885</v>
       </c>
       <c r="E80" s="3">
-        <f>IF(E5&lt;100,E5,T5)</f>
+        <f t="shared" ref="E80:E98" si="2">IF(E5&lt;100,E5,T5)</f>
         <v>58.123948940910871</v>
       </c>
       <c r="F80" s="3">
-        <f>IF(F5&lt;100,F5,U5)</f>
+        <f t="shared" ref="F80:F98" si="3">IF(F5&lt;100,F5,U5)</f>
         <v>29.793866650172543</v>
       </c>
       <c r="G80" s="3">
-        <f>IF(G5&lt;100,G5,V5)</f>
+        <f t="shared" ref="G80:G98" si="4">IF(G5&lt;100,G5,V5)</f>
         <v>9.1846186290390985</v>
       </c>
       <c r="H80" s="3">
-        <f>IF(H5&lt;100,H5,W5)</f>
+        <f t="shared" ref="H80:H98" si="5">IF(H5&lt;100,H5,W5)</f>
         <v>21.57088527459905</v>
       </c>
       <c r="I80" s="3">
-        <f>IF(I5&lt;100,I5,X5)</f>
+        <f t="shared" ref="I80:I98" si="6">IF(I5&lt;100,I5,X5)</f>
         <v>9.8908929888770363</v>
       </c>
       <c r="J80" s="3">
-        <f>IF(J5&lt;100,J5,Y5)</f>
+        <f t="shared" ref="J80:J98" si="7">IF(J5&lt;100,J5,Y5)</f>
         <v>5.013939331524341</v>
       </c>
       <c r="K80" s="3">
-        <f>IF(K5&lt;100,K5,Z5)</f>
+        <f t="shared" ref="K80:K98" si="8">IF(K5&lt;100,K5,Z5)</f>
         <v>22.606795381413558</v>
       </c>
       <c r="L80" s="3">
-        <f>IF(L5&lt;100,L5,AA5)</f>
+        <f t="shared" ref="L80:L98" si="9">IF(L5&lt;100,L5,AA5)</f>
         <v>3.2856760038628656</v>
       </c>
       <c r="M80" s="3">
-        <f>IF(M5&lt;100,M5,AB5)</f>
+        <f t="shared" ref="M80:M98" si="10">IF(M5&lt;100,M5,AB5)</f>
         <v>7.869156548175293</v>
       </c>
       <c r="N80" s="3">
-        <f>IF(N5&lt;100,N5,AC5)</f>
+        <f t="shared" ref="N80:N98" si="11">IF(N5&lt;100,N5,AC5)</f>
         <v>74.101815031035301</v>
       </c>
       <c r="Q80" s="1" t="s">
@@ -5655,1956 +5739,3666 @@
         <v>8.262630012234478</v>
       </c>
       <c r="S80" s="7">
-        <f t="shared" ref="S80:AC80" si="0">IF(D5&lt;100,D31,S31)</f>
+        <f t="shared" ref="S80:AC80" si="12">IF(D5&lt;100,D31,S31)</f>
         <v>7.8678640220170495</v>
       </c>
       <c r="T80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>12.030915457313174</v>
       </c>
       <c r="U80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>11.901789859599718</v>
       </c>
       <c r="V80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>3.9350719875167441</v>
       </c>
       <c r="W80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>8.3007672915976052</v>
       </c>
       <c r="X80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>4.8790282938944909</v>
       </c>
       <c r="Y80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>1.7366339873765515</v>
       </c>
       <c r="Z80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>5.9538717689971357</v>
       </c>
       <c r="AA80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>0.45209680505035865</v>
       </c>
       <c r="AB80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>8.2250926583564254</v>
       </c>
       <c r="AC80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>5.2593494015789828</v>
       </c>
-    </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH80" s="8">
+        <f>(R80^2)*2</f>
+        <v>136.54210943815585</v>
+      </c>
+      <c r="AI80" s="8">
+        <f t="shared" ref="AI80:AS80" si="13">(S80^2)*2</f>
+        <v>123.8065685379006</v>
+      </c>
+      <c r="AJ80" s="8">
+        <f t="shared" si="13"/>
+        <v>289.48585348203414</v>
+      </c>
+      <c r="AK80" s="8">
+        <f t="shared" si="13"/>
+        <v>283.30520372414139</v>
+      </c>
+      <c r="AL80" s="8">
+        <f t="shared" si="13"/>
+        <v>30.969583093877958</v>
+      </c>
+      <c r="AM80" s="8">
+        <f t="shared" si="13"/>
+        <v>137.8054752585133</v>
+      </c>
+      <c r="AN80" s="8">
+        <f t="shared" si="13"/>
+        <v>47.609834185245973</v>
+      </c>
+      <c r="AO80" s="8">
+        <f t="shared" si="13"/>
+        <v>6.0317952122227609</v>
+      </c>
+      <c r="AP80" s="8">
+        <f t="shared" si="13"/>
+        <v>70.89717808332216</v>
+      </c>
+      <c r="AQ80" s="8">
+        <f t="shared" si="13"/>
+        <v>0.408783042273484</v>
+      </c>
+      <c r="AR80" s="8">
+        <f t="shared" si="13"/>
+        <v>135.30429847709755</v>
+      </c>
+      <c r="AS80" s="8">
+        <f t="shared" si="13"/>
+        <v>55.321512255778408</v>
+      </c>
+      <c r="AV80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW80" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX80" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY80" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ80" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA80" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB80" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC80" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD80" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE80" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF80" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG80" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH80" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="3">
-        <f>IF(C6&lt;100,C6,R6)</f>
+        <f t="shared" si="0"/>
         <v>3.4517283862056636</v>
       </c>
       <c r="D81" s="3">
-        <f>IF(D6&lt;100,D6,S6)</f>
+        <f t="shared" si="1"/>
         <v>3.557610567384065</v>
       </c>
       <c r="E81" s="3">
-        <f>IF(E6&lt;100,E6,T6)</f>
+        <f t="shared" si="2"/>
         <v>3.8424714065677299</v>
       </c>
       <c r="F81" s="3">
-        <f>IF(F6&lt;100,F6,U6)</f>
+        <f t="shared" si="3"/>
         <v>19.841332317183401</v>
       </c>
       <c r="G81" s="3">
-        <f>IF(G6&lt;100,G6,V6)</f>
+        <f t="shared" si="4"/>
         <v>85.530991198950446</v>
       </c>
       <c r="H81" s="3">
-        <f>IF(H6&lt;100,H6,W6)</f>
+        <f t="shared" si="5"/>
         <v>4.1927287188173734</v>
       </c>
       <c r="I81" s="3">
-        <f>IF(I6&lt;100,I6,X6)</f>
+        <f t="shared" si="6"/>
         <v>3.3528842411555408</v>
       </c>
       <c r="J81" s="3">
-        <f>IF(J6&lt;100,J6,Y6)</f>
+        <f t="shared" si="7"/>
         <v>3.4180939635230629</v>
       </c>
       <c r="K81" s="3">
-        <f>IF(K6&lt;100,K6,Z6)</f>
+        <f t="shared" si="8"/>
         <v>88.38746676702506</v>
       </c>
       <c r="L81" s="3">
-        <f>IF(L6&lt;100,L6,AA6)</f>
+        <f t="shared" si="9"/>
         <v>263.91898023416599</v>
       </c>
       <c r="M81" s="3">
-        <f>IF(M6&lt;100,M6,AB6)</f>
+        <f t="shared" si="10"/>
         <v>40.321665472874862</v>
       </c>
       <c r="N81" s="3">
-        <f>IF(N6&lt;100,N6,AC6)</f>
+        <f t="shared" si="11"/>
         <v>40.212011262950135</v>
       </c>
       <c r="Q81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="7">
-        <f t="shared" ref="R81:R100" si="1">IF(C6&lt;100,C32,R32)</f>
+        <f t="shared" ref="R81:R100" si="14">IF(C6&lt;100,C32,R32)</f>
         <v>0.79141619117037443</v>
       </c>
       <c r="S81" s="7">
-        <f t="shared" ref="S81:S100" si="2">IF(D6&lt;100,D32,S32)</f>
+        <f t="shared" ref="S81:S100" si="15">IF(D6&lt;100,D32,S32)</f>
         <v>0.48867397436049664</v>
       </c>
       <c r="T81" s="7">
-        <f t="shared" ref="T81:T100" si="3">IF(E6&lt;100,E32,T32)</f>
+        <f t="shared" ref="T81:T100" si="16">IF(E6&lt;100,E32,T32)</f>
         <v>0.95459998126050261</v>
       </c>
       <c r="U81" s="7">
-        <f t="shared" ref="U81:U100" si="4">IF(F6&lt;100,F32,U32)</f>
+        <f t="shared" ref="U81:U100" si="17">IF(F6&lt;100,F32,U32)</f>
         <v>7.6975808024694929</v>
       </c>
       <c r="V81" s="7">
-        <f t="shared" ref="V81:V100" si="5">IF(G6&lt;100,G32,V32)</f>
+        <f t="shared" ref="V81:V100" si="18">IF(G6&lt;100,G32,V32)</f>
         <v>7.8048719707176089</v>
       </c>
       <c r="W81" s="7">
-        <f t="shared" ref="W81:W100" si="6">IF(H6&lt;100,H32,W32)</f>
+        <f t="shared" ref="W81:W100" si="19">IF(H6&lt;100,H32,W32)</f>
         <v>1.2144364764517173</v>
       </c>
       <c r="X81" s="7">
-        <f t="shared" ref="X81:X99" si="7">IF(I6&lt;100,I32,X32)</f>
+        <f t="shared" ref="X81:X99" si="20">IF(I6&lt;100,I32,X32)</f>
         <v>0.11109662382185237</v>
       </c>
       <c r="Y81" s="7">
-        <f t="shared" ref="Y81:Y99" si="8">IF(J6&lt;100,J32,Y32)</f>
+        <f t="shared" ref="Y81:Y99" si="21">IF(J6&lt;100,J32,Y32)</f>
         <v>0.58944910142446116</v>
       </c>
       <c r="Z81" s="7">
-        <f t="shared" ref="Z81:Z98" si="9">IF(K6&lt;100,K32,Z32)</f>
+        <f t="shared" ref="Z81:Z98" si="22">IF(K6&lt;100,K32,Z32)</f>
         <v>30.816733942064186</v>
       </c>
       <c r="AA81" s="7">
-        <f t="shared" ref="AA81:AA98" si="10">IF(L6&lt;100,L32,AA32)</f>
+        <f t="shared" ref="AA81:AA98" si="23">IF(L6&lt;100,L32,AA32)</f>
         <v>18.055276970756587</v>
       </c>
       <c r="AB81" s="7">
-        <f t="shared" ref="AB81:AB98" si="11">IF(M6&lt;100,M32,AB32)</f>
+        <f t="shared" ref="AB81:AB98" si="24">IF(M6&lt;100,M32,AB32)</f>
         <v>5.9487381154029491</v>
       </c>
       <c r="AC81" s="7">
-        <f t="shared" ref="AC81:AC98" si="12">IF(N6&lt;100,N32,AC32)</f>
+        <f t="shared" ref="AC81:AC98" si="25">IF(N6&lt;100,N32,AC32)</f>
         <v>8.5412731397776067</v>
       </c>
-    </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH81" s="8">
+        <f t="shared" ref="AH81:AH100" si="26">(R81^2)*2</f>
+        <v>1.2526791752932454</v>
+      </c>
+      <c r="AI81" s="8">
+        <f t="shared" ref="AI81:AI100" si="27">(S81^2)*2</f>
+        <v>0.47760450643456664</v>
+      </c>
+      <c r="AJ81" s="8">
+        <f t="shared" ref="AJ81:AJ100" si="28">(T81^2)*2</f>
+        <v>1.8225222484451038</v>
+      </c>
+      <c r="AK81" s="8">
+        <f t="shared" ref="AK81:AK100" si="29">(U81^2)*2</f>
+        <v>118.50550042109377</v>
+      </c>
+      <c r="AL81" s="8">
+        <f t="shared" ref="AL81:AL100" si="30">(V81^2)*2</f>
+        <v>121.83205295858674</v>
+      </c>
+      <c r="AM81" s="8">
+        <f t="shared" ref="AM81:AM100" si="31">(W81^2)*2</f>
+        <v>2.9497119106729248</v>
+      </c>
+      <c r="AN81" s="8">
+        <f t="shared" ref="AN81:AN100" si="32">(X81^2)*2</f>
+        <v>2.4684919649228351E-2</v>
+      </c>
+      <c r="AO81" s="8">
+        <f t="shared" ref="AO81:AO100" si="33">(Y81^2)*2</f>
+        <v>0.6949004863402094</v>
+      </c>
+      <c r="AP81" s="8">
+        <f t="shared" ref="AP81:AP100" si="34">(Z81^2)*2</f>
+        <v>1899.3421817119417</v>
+      </c>
+      <c r="AQ81" s="8">
+        <f t="shared" ref="AQ81:AQ100" si="35">(AA81^2)*2</f>
+        <v>651.98605298146629</v>
+      </c>
+      <c r="AR81" s="8">
+        <f t="shared" ref="AR81:AR100" si="36">(AB81^2)*2</f>
+        <v>70.774970331295663</v>
+      </c>
+      <c r="AS81" s="8">
+        <f t="shared" ref="AS81:AS100" si="37">(AC81^2)*2</f>
+        <v>145.90669369657283</v>
+      </c>
+      <c r="AV81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW81" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX81" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY81" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ81" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA81" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB81" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC81" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD81" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE81" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF81" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG81" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH81" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="3">
-        <f>IF(C7&lt;100,C7,R7)</f>
+        <f t="shared" si="0"/>
         <v>72.449898302108451</v>
       </c>
       <c r="D82" s="3">
-        <f>IF(D7&lt;100,D7,S7)</f>
+        <f t="shared" si="1"/>
         <v>67.693480783399465</v>
       </c>
       <c r="E82" s="3">
-        <f>IF(E7&lt;100,E7,T7)</f>
+        <f t="shared" si="2"/>
         <v>12.307119870029661</v>
       </c>
       <c r="F82" s="3">
-        <f>IF(F7&lt;100,F7,U7)</f>
+        <f t="shared" si="3"/>
         <v>69.998105172641999</v>
       </c>
       <c r="G82" s="3">
-        <f>IF(G7&lt;100,G7,V7)</f>
+        <f t="shared" si="4"/>
         <v>37.147822565996648</v>
       </c>
       <c r="H82" s="3">
-        <f>IF(H7&lt;100,H7,W7)</f>
+        <f t="shared" si="5"/>
         <v>7.5088838697535039</v>
       </c>
       <c r="I82" s="3">
-        <f>IF(I7&lt;100,I7,X7)</f>
+        <f t="shared" si="6"/>
         <v>111.38180327846742</v>
       </c>
       <c r="J82" s="3">
-        <f>IF(J7&lt;100,J7,Y7)</f>
+        <f t="shared" si="7"/>
         <v>116.71939269907743</v>
       </c>
       <c r="K82" s="3">
-        <f>IF(K7&lt;100,K7,Z7)</f>
+        <f t="shared" si="8"/>
         <v>92.108534521440674</v>
       </c>
       <c r="L82" s="3">
-        <f>IF(L7&lt;100,L7,AA7)</f>
+        <f t="shared" si="9"/>
         <v>82.362732292485362</v>
       </c>
       <c r="M82" s="3">
-        <f>IF(M7&lt;100,M7,AB7)</f>
+        <f t="shared" si="10"/>
         <v>80.765539447048369</v>
       </c>
       <c r="N82" s="3">
-        <f>IF(N7&lt;100,N7,AC7)</f>
+        <f t="shared" si="11"/>
         <v>95.455093183218139</v>
       </c>
       <c r="Q82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R82" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>23.076814413087291</v>
       </c>
       <c r="S82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>15.719368580684032</v>
       </c>
       <c r="T82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>4.8547001110813532</v>
       </c>
       <c r="U82" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>17.367854614882472</v>
       </c>
       <c r="V82" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.482207482690896</v>
       </c>
       <c r="W82" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.5819525297550086</v>
       </c>
       <c r="X82" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>24.137227155712644</v>
       </c>
       <c r="Y82" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>5.0990714436228179</v>
       </c>
       <c r="Z82" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>5.6815508983778633</v>
       </c>
       <c r="AA82" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>5.3035150965623066</v>
       </c>
       <c r="AB82" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.816182953512703</v>
       </c>
       <c r="AC82" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11.427320171259655</v>
       </c>
-    </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH82" s="8">
+        <f t="shared" si="26"/>
+        <v>1065.0787269121467</v>
+      </c>
+      <c r="AI82" s="8">
+        <f t="shared" si="27"/>
+        <v>494.19709715079262</v>
+      </c>
+      <c r="AJ82" s="8">
+        <f t="shared" si="28"/>
+        <v>47.13622633706661</v>
+      </c>
+      <c r="AK82" s="8">
+        <f t="shared" si="29"/>
+        <v>603.28474784738876</v>
+      </c>
+      <c r="AL82" s="8">
+        <f t="shared" si="30"/>
+        <v>40.180367835780515</v>
+      </c>
+      <c r="AM82" s="8">
+        <f t="shared" si="31"/>
+        <v>13.332957731816578</v>
+      </c>
+      <c r="AN82" s="8">
+        <f t="shared" si="32"/>
+        <v>1165.2114695329437</v>
+      </c>
+      <c r="AO82" s="8">
+        <f t="shared" si="33"/>
+        <v>52.001059174339375</v>
+      </c>
+      <c r="AP82" s="8">
+        <f t="shared" si="34"/>
+        <v>64.560041221716617</v>
+      </c>
+      <c r="AQ82" s="8">
+        <f t="shared" si="35"/>
+        <v>56.254544758928581</v>
+      </c>
+      <c r="AR82" s="8">
+        <f t="shared" si="36"/>
+        <v>122.18543192556513</v>
+      </c>
+      <c r="AS82" s="8">
+        <f t="shared" si="37"/>
+        <v>261.16729259295562</v>
+      </c>
+      <c r="AV82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW82" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX82" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY82" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ82" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA82" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB82" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC82" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD82" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE82" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF82" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG82" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH82" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="3">
-        <f>IF(C8&lt;100,C8,R8)</f>
+        <f t="shared" si="0"/>
         <v>56.121318846569999</v>
       </c>
       <c r="D83" s="3">
-        <f>IF(D8&lt;100,D8,S8)</f>
+        <f t="shared" si="1"/>
         <v>23.179828046450211</v>
       </c>
       <c r="E83" s="3">
-        <f>IF(E8&lt;100,E8,T8)</f>
+        <f t="shared" si="2"/>
         <v>27.265458782018658</v>
       </c>
       <c r="F83" s="3">
-        <f>IF(F8&lt;100,F8,U8)</f>
+        <f t="shared" si="3"/>
         <v>3.0650839487458179</v>
       </c>
       <c r="G83" s="3">
-        <f>IF(G8&lt;100,G8,V8)</f>
+        <f t="shared" si="4"/>
         <v>84.770311656632373</v>
       </c>
       <c r="H83" s="3">
-        <f>IF(H8&lt;100,H8,W8)</f>
+        <f t="shared" si="5"/>
         <v>90.792477534783004</v>
       </c>
       <c r="I83" s="3">
-        <f>IF(I8&lt;100,I8,X8)</f>
+        <f t="shared" si="6"/>
         <v>3.0947672692746266</v>
       </c>
       <c r="J83" s="3">
-        <f>IF(J8&lt;100,J8,Y8)</f>
+        <f t="shared" si="7"/>
         <v>3.1105214078506074</v>
       </c>
       <c r="K83" s="3">
-        <f>IF(K8&lt;100,K8,Z8)</f>
+        <f t="shared" si="8"/>
         <v>34.244663843825641</v>
       </c>
       <c r="L83" s="3">
-        <f>IF(L8&lt;100,L8,AA8)</f>
+        <f t="shared" si="9"/>
         <v>93.929651658100511</v>
       </c>
       <c r="M83" s="3">
-        <f>IF(M8&lt;100,M8,AB8)</f>
+        <f t="shared" si="10"/>
         <v>3.5480772047547284</v>
       </c>
       <c r="N83" s="3">
-        <f>IF(N8&lt;100,N8,AC8)</f>
+        <f t="shared" si="11"/>
         <v>3.4801341641854342</v>
       </c>
       <c r="Q83" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R83" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>11.04141563008265</v>
       </c>
       <c r="S83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>5.516503952666123</v>
       </c>
       <c r="T83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>1.7623535930935266</v>
       </c>
       <c r="U83" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.24188057092901277</v>
       </c>
       <c r="V83" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.9047682445245471</v>
       </c>
       <c r="W83" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>12.401796171882713</v>
       </c>
       <c r="X83" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>7.2726534112522306E-2</v>
       </c>
       <c r="Y83" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.24295716571349135</v>
       </c>
       <c r="Z83" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>6.5018078267895953</v>
       </c>
       <c r="AA83" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>25.371907719886078</v>
       </c>
       <c r="AB83" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.83065964339240661</v>
       </c>
       <c r="AC83" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.77429108707565575</v>
       </c>
-    </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH83" s="8">
+        <f t="shared" si="26"/>
+        <v>243.82571823246687</v>
+      </c>
+      <c r="AI83" s="8">
+        <f t="shared" si="27"/>
+        <v>60.863631719561916</v>
+      </c>
+      <c r="AJ83" s="8">
+        <f t="shared" si="28"/>
+        <v>6.2117803741793267</v>
+      </c>
+      <c r="AK83" s="8">
+        <f t="shared" si="29"/>
+        <v>0.11701242118589036</v>
+      </c>
+      <c r="AL83" s="8">
+        <f t="shared" si="30"/>
+        <v>158.58979497738557</v>
+      </c>
+      <c r="AM83" s="8">
+        <f t="shared" si="31"/>
+        <v>307.60909657784947</v>
+      </c>
+      <c r="AN83" s="8">
+        <f t="shared" si="32"/>
+        <v>1.0578297528039741E-2</v>
+      </c>
+      <c r="AO83" s="8">
+        <f t="shared" si="33"/>
+        <v>0.1180563687430658</v>
+      </c>
+      <c r="AP83" s="8">
+        <f t="shared" si="34"/>
+        <v>84.547010033004881</v>
+      </c>
+      <c r="AQ83" s="8">
+        <f t="shared" si="35"/>
+        <v>1287.4674026928296</v>
+      </c>
+      <c r="AR83" s="8">
+        <f t="shared" si="36"/>
+        <v>1.3799908863216002</v>
+      </c>
+      <c r="AS83" s="8">
+        <f t="shared" si="37"/>
+        <v>1.1990533750496015</v>
+      </c>
+      <c r="AV83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW83" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX83" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY83" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ83" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA83" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB83" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC83" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD83" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE83" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF83" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG83" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH83" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="3">
-        <f>IF(C9&lt;100,C9,R9)</f>
+        <f t="shared" si="0"/>
         <v>71.002035754953738</v>
       </c>
       <c r="D84" s="3">
-        <f>IF(D9&lt;100,D9,S9)</f>
+        <f t="shared" si="1"/>
         <v>57.820598244783447</v>
       </c>
       <c r="E84" s="3">
-        <f>IF(E9&lt;100,E9,T9)</f>
+        <f t="shared" si="2"/>
         <v>67.341939448374475</v>
       </c>
       <c r="F84" s="3">
-        <f>IF(F9&lt;100,F9,U9)</f>
+        <f t="shared" si="3"/>
         <v>14.502298156494456</v>
       </c>
       <c r="G84" s="3">
-        <f>IF(G9&lt;100,G9,V9)</f>
+        <f t="shared" si="4"/>
         <v>92.917126978074009</v>
       </c>
       <c r="H84" s="3">
-        <f>IF(H9&lt;100,H9,W9)</f>
+        <f t="shared" si="5"/>
         <v>61.883057793778811</v>
       </c>
       <c r="I84" s="3">
-        <f>IF(I9&lt;100,I9,X9)</f>
+        <f t="shared" si="6"/>
         <v>17.416108234591679</v>
       </c>
       <c r="J84" s="3">
-        <f>IF(J9&lt;100,J9,Y9)</f>
+        <f t="shared" si="7"/>
         <v>60.675877751165125</v>
       </c>
       <c r="K84" s="3">
-        <f>IF(K9&lt;100,K9,Z9)</f>
+        <f t="shared" si="8"/>
         <v>50.193862515927854</v>
       </c>
       <c r="L84" s="3">
-        <f>IF(L9&lt;100,L9,AA9)</f>
+        <f t="shared" si="9"/>
         <v>61.800092645357331</v>
       </c>
       <c r="M84" s="3">
-        <f>IF(M9&lt;100,M9,AB9)</f>
+        <f t="shared" si="10"/>
         <v>33.640281766490524</v>
       </c>
       <c r="N84" s="3">
-        <f>IF(N9&lt;100,N9,AC9)</f>
+        <f t="shared" si="11"/>
         <v>11.03219683152517</v>
       </c>
       <c r="Q84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R84" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>13.132980329865472</v>
       </c>
       <c r="S84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>13.32855965863207</v>
       </c>
       <c r="T84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>3.7975909228166955</v>
       </c>
       <c r="U84" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>9.0147512051524767</v>
       </c>
       <c r="V84" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.9848850458406027</v>
       </c>
       <c r="W84" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4.5793101392917137</v>
       </c>
       <c r="X84" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.0270960267553346</v>
       </c>
       <c r="Y84" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>12.122270572156145</v>
       </c>
       <c r="Z84" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>2.7107550672200089</v>
       </c>
       <c r="AA84" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>9.838007980592927</v>
       </c>
       <c r="AB84" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.4908556113270039</v>
       </c>
       <c r="AC84" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>8.6889208962301012</v>
       </c>
-    </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="8">
+        <f t="shared" si="26"/>
+        <v>344.95034468926679</v>
+      </c>
+      <c r="AI84" s="8">
+        <f t="shared" si="27"/>
+        <v>355.3010051474285</v>
+      </c>
+      <c r="AJ84" s="8">
+        <f t="shared" si="28"/>
+        <v>28.843393634119522</v>
+      </c>
+      <c r="AK84" s="8">
+        <f t="shared" si="29"/>
+        <v>162.53147858159608</v>
+      </c>
+      <c r="AL84" s="8">
+        <f t="shared" si="30"/>
+        <v>161.45631857394017</v>
+      </c>
+      <c r="AM84" s="8">
+        <f t="shared" si="31"/>
+        <v>41.940162703639785</v>
+      </c>
+      <c r="AN84" s="8">
+        <f t="shared" si="32"/>
+        <v>2.1098524963531902</v>
+      </c>
+      <c r="AO84" s="8">
+        <f t="shared" si="33"/>
+        <v>293.89888764912575</v>
+      </c>
+      <c r="AP84" s="8">
+        <f t="shared" si="34"/>
+        <v>14.69638606891791</v>
+      </c>
+      <c r="AQ84" s="8">
+        <f t="shared" si="35"/>
+        <v>193.57280205242026</v>
+      </c>
+      <c r="AR84" s="8">
+        <f t="shared" si="36"/>
+        <v>40.335568243574478</v>
+      </c>
+      <c r="AS84" s="8">
+        <f t="shared" si="37"/>
+        <v>150.99469268188821</v>
+      </c>
+      <c r="AV84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW84" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX84" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY84" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ84" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA84" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB84" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC84" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD84" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE84" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF84" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG84" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH84" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="3">
-        <f>IF(C10&lt;100,C10,R10)</f>
+        <f t="shared" si="0"/>
         <v>123.23662127483176</v>
       </c>
       <c r="D85" s="3">
-        <f>IF(D10&lt;100,D10,S10)</f>
+        <f t="shared" si="1"/>
         <v>59.350479352485856</v>
       </c>
       <c r="E85" s="3">
-        <f>IF(E10&lt;100,E10,T10)</f>
+        <f t="shared" si="2"/>
         <v>97.513499132256641</v>
       </c>
       <c r="F85" s="3">
-        <f>IF(F10&lt;100,F10,U10)</f>
+        <f t="shared" si="3"/>
         <v>89.229090627880581</v>
       </c>
       <c r="G85" s="3">
-        <f>IF(G10&lt;100,G10,V10)</f>
+        <f t="shared" si="4"/>
         <v>87.359740471212561</v>
       </c>
       <c r="H85" s="3">
-        <f>IF(H10&lt;100,H10,W10)</f>
+        <f t="shared" si="5"/>
         <v>5.0905701092249087</v>
       </c>
       <c r="I85" s="3">
-        <f>IF(I10&lt;100,I10,X10)</f>
+        <f t="shared" si="6"/>
         <v>53.482617140302011</v>
       </c>
       <c r="J85" s="3">
-        <f>IF(J10&lt;100,J10,Y10)</f>
+        <f t="shared" si="7"/>
         <v>92.825058019217195</v>
       </c>
       <c r="K85" s="3">
-        <f>IF(K10&lt;100,K10,Z10)</f>
+        <f t="shared" si="8"/>
         <v>4.6803367662737783</v>
       </c>
       <c r="L85" s="3">
-        <f>IF(L10&lt;100,L10,AA10)</f>
+        <f t="shared" si="9"/>
         <v>9.5749023119875378</v>
       </c>
       <c r="M85" s="3">
-        <f>IF(M10&lt;100,M10,AB10)</f>
+        <f t="shared" si="10"/>
         <v>3.9359575104355713</v>
       </c>
       <c r="N85" s="3">
-        <f>IF(N10&lt;100,N10,AC10)</f>
+        <f t="shared" si="11"/>
         <v>8.5233552663544661</v>
       </c>
       <c r="Q85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R85" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>21.959053796918671</v>
       </c>
       <c r="S85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>9.10221342505716</v>
       </c>
       <c r="T85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>6.3639043572073026</v>
       </c>
       <c r="U85" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>9.3406462657759199</v>
       </c>
       <c r="V85" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>12.990361805877445</v>
       </c>
       <c r="W85" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.794704056749481</v>
       </c>
       <c r="X85" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.8137686609772015</v>
       </c>
       <c r="Y85" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>6.5879430832719121</v>
       </c>
       <c r="Z85" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>2.0441206666153535</v>
       </c>
       <c r="AA85" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>6.0590118052221076</v>
       </c>
       <c r="AB85" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.20706282340809684</v>
       </c>
       <c r="AC85" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.6321353800873739</v>
       </c>
-    </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH85" s="8">
+        <f t="shared" si="26"/>
+        <v>964.40008731193655</v>
+      </c>
+      <c r="AI85" s="8">
+        <f t="shared" si="27"/>
+        <v>165.7005784705816</v>
+      </c>
+      <c r="AJ85" s="8">
+        <f t="shared" si="28"/>
+        <v>80.998557335364183</v>
+      </c>
+      <c r="AK85" s="8">
+        <f t="shared" si="29"/>
+        <v>174.49534532470727</v>
+      </c>
+      <c r="AL85" s="8">
+        <f t="shared" si="30"/>
+        <v>337.49899969519902</v>
+      </c>
+      <c r="AM85" s="8">
+        <f t="shared" si="31"/>
+        <v>15.620741529624013</v>
+      </c>
+      <c r="AN85" s="8">
+        <f t="shared" si="32"/>
+        <v>46.34473744281248</v>
+      </c>
+      <c r="AO85" s="8">
+        <f t="shared" si="33"/>
+        <v>86.801988136860459</v>
+      </c>
+      <c r="AP85" s="8">
+        <f t="shared" si="34"/>
+        <v>8.3568585993679942</v>
+      </c>
+      <c r="AQ85" s="8">
+        <f t="shared" si="35"/>
+        <v>73.423248111641726</v>
+      </c>
+      <c r="AR85" s="8">
+        <f t="shared" si="36"/>
+        <v>8.5750025675465399E-2</v>
+      </c>
+      <c r="AS85" s="8">
+        <f t="shared" si="37"/>
+        <v>42.913356358914399</v>
+      </c>
+      <c r="AV85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW85" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX85" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY85" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ85" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA85" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB85" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC85" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD85" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE85" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF85" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG85" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH85" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="3">
-        <f>IF(C11&lt;100,C11,R11)</f>
+        <f t="shared" si="0"/>
         <v>3.0820804809081039</v>
       </c>
       <c r="D86" s="3">
-        <f>IF(D11&lt;100,D11,S11)</f>
+        <f t="shared" si="1"/>
         <v>19.995977930543006</v>
       </c>
       <c r="E86" s="3">
-        <f>IF(E11&lt;100,E11,T11)</f>
+        <f t="shared" si="2"/>
         <v>61.444306627271224</v>
       </c>
       <c r="F86" s="3">
-        <f>IF(F11&lt;100,F11,U11)</f>
+        <f t="shared" si="3"/>
         <v>36.734199585078841</v>
       </c>
       <c r="G86" s="3">
-        <f>IF(G11&lt;100,G11,V11)</f>
+        <f t="shared" si="4"/>
         <v>3.5206869830425753</v>
       </c>
       <c r="H86" s="3">
-        <f>IF(H11&lt;100,H11,W11)</f>
+        <f t="shared" si="5"/>
         <v>103.25629425211913</v>
       </c>
       <c r="I86" s="3">
-        <f>IF(I11&lt;100,I11,X11)</f>
+        <f t="shared" si="6"/>
         <v>94.17858669977123</v>
       </c>
       <c r="J86" s="3">
-        <f>IF(J11&lt;100,J11,Y11)</f>
+        <f t="shared" si="7"/>
         <v>3.3095990565374223</v>
       </c>
       <c r="K86" s="3">
-        <f>IF(K11&lt;100,K11,Z11)</f>
+        <f t="shared" si="8"/>
         <v>62.926426263661597</v>
       </c>
       <c r="L86" s="3">
-        <f>IF(L11&lt;100,L11,AA11)</f>
+        <f t="shared" si="9"/>
         <v>82.825317055801165</v>
       </c>
       <c r="M86" s="3">
-        <f>IF(M11&lt;100,M11,AB11)</f>
+        <f t="shared" si="10"/>
         <v>56.070635482604473</v>
       </c>
       <c r="N86" s="3">
-        <f>IF(N11&lt;100,N11,AC11)</f>
+        <f t="shared" si="11"/>
         <v>45.992012934612525</v>
       </c>
       <c r="Q86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="R86" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.59892679516919467</v>
       </c>
       <c r="S86" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>7.9824525095991019</v>
       </c>
       <c r="T86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>13.050552344048768</v>
       </c>
       <c r="U86" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>12.81195913629764</v>
       </c>
       <c r="V86" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.95161217716462465</v>
       </c>
       <c r="W86" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.5956467669372802</v>
       </c>
       <c r="X86" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.1328051649051654</v>
       </c>
       <c r="Y86" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.90050570249155171</v>
       </c>
       <c r="Z86" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>15.267510270790991</v>
       </c>
       <c r="AA86" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>12.919304448466798</v>
       </c>
       <c r="AB86" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>19.464989957503025</v>
       </c>
       <c r="AC86" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11.482756720592448</v>
       </c>
-    </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH86" s="8">
+        <f t="shared" si="26"/>
+        <v>0.71742661194328494</v>
+      </c>
+      <c r="AI86" s="8">
+        <f t="shared" si="27"/>
+        <v>127.43909613600999</v>
+      </c>
+      <c r="AJ86" s="8">
+        <f t="shared" si="28"/>
+        <v>340.63383296951361</v>
+      </c>
+      <c r="AK86" s="8">
+        <f t="shared" si="29"/>
+        <v>328.29259382032114</v>
+      </c>
+      <c r="AL86" s="8">
+        <f t="shared" si="30"/>
+        <v>1.8111314714559938</v>
+      </c>
+      <c r="AM86" s="8">
+        <f t="shared" si="31"/>
+        <v>115.38769961616951</v>
+      </c>
+      <c r="AN86" s="8">
+        <f t="shared" si="32"/>
+        <v>19.628936402512959</v>
+      </c>
+      <c r="AO86" s="8">
+        <f t="shared" si="33"/>
+        <v>1.6218210404396061</v>
+      </c>
+      <c r="AP86" s="8">
+        <f t="shared" si="34"/>
+        <v>466.19373973741682</v>
+      </c>
+      <c r="AQ86" s="8">
+        <f t="shared" si="35"/>
+        <v>333.81685486434799</v>
+      </c>
+      <c r="AR86" s="8">
+        <f t="shared" si="36"/>
+        <v>757.77166809138726</v>
+      </c>
+      <c r="AS86" s="8">
+        <f t="shared" si="37"/>
+        <v>263.70740380862208</v>
+      </c>
+      <c r="AV86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW86" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX86" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY86" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ86" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA86" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB86" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC86" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD86" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE86" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF86" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG86" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH86" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="3">
-        <f>IF(C12&lt;100,C12,R12)</f>
+        <f t="shared" si="0"/>
         <v>81.832761180431405</v>
       </c>
       <c r="D87" s="3">
-        <f>IF(D12&lt;100,D12,S12)</f>
+        <f t="shared" si="1"/>
         <v>5.6520256238632767</v>
       </c>
       <c r="E87" s="3">
-        <f>IF(E12&lt;100,E12,T12)</f>
+        <f t="shared" si="2"/>
         <v>73.04290047693398</v>
       </c>
       <c r="F87" s="3">
-        <f>IF(F12&lt;100,F12,U12)</f>
+        <f t="shared" si="3"/>
         <v>21.876989195622134</v>
       </c>
       <c r="G87" s="3">
-        <f>IF(G12&lt;100,G12,V12)</f>
+        <f t="shared" si="4"/>
         <v>64.104141454915649</v>
       </c>
       <c r="H87" s="3">
-        <f>IF(H12&lt;100,H12,W12)</f>
+        <f t="shared" si="5"/>
         <v>83.500297801547205</v>
       </c>
       <c r="I87" s="3">
-        <f>IF(I12&lt;100,I12,X12)</f>
+        <f t="shared" si="6"/>
         <v>94.033864308441125</v>
       </c>
       <c r="J87" s="3">
-        <f>IF(J12&lt;100,J12,Y12)</f>
+        <f t="shared" si="7"/>
         <v>18.391421604492791</v>
       </c>
       <c r="K87" s="3">
-        <f>IF(K12&lt;100,K12,Z12)</f>
+        <f t="shared" si="8"/>
         <v>102.42281640816857</v>
       </c>
       <c r="L87" s="3">
-        <f>IF(L12&lt;100,L12,AA12)</f>
+        <f t="shared" si="9"/>
         <v>133.89672621716784</v>
       </c>
       <c r="M87" s="3">
-        <f>IF(M12&lt;100,M12,AB12)</f>
+        <f t="shared" si="10"/>
         <v>65.526328803055279</v>
       </c>
       <c r="N87" s="3">
-        <f>IF(N12&lt;100,N12,AC12)</f>
+        <f t="shared" si="11"/>
         <v>4.2309246882982636</v>
       </c>
       <c r="Q87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R87" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>6.3602567045707703</v>
       </c>
       <c r="S87" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>2.0155212696753253</v>
       </c>
       <c r="T87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>24.972744621553527</v>
       </c>
       <c r="U87" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>9.9372148292045672</v>
       </c>
       <c r="V87" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.7681841643563203</v>
       </c>
       <c r="W87" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>11.380189192710798</v>
       </c>
       <c r="X87" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>12.564041214842925</v>
       </c>
       <c r="Y87" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>8.7827298658456474</v>
       </c>
       <c r="Z87" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>17.101040343009988</v>
       </c>
       <c r="AA87" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>23.520928053253396</v>
       </c>
       <c r="AB87" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.4626881266033962</v>
       </c>
       <c r="AC87" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.4160022959845233</v>
       </c>
-    </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH87" s="8">
+        <f t="shared" si="26"/>
+        <v>80.905730696074869</v>
+      </c>
+      <c r="AI87" s="8">
+        <f t="shared" si="27"/>
+        <v>8.1246519770272716</v>
+      </c>
+      <c r="AJ87" s="8">
+        <f t="shared" si="28"/>
+        <v>1247.2759478666612</v>
+      </c>
+      <c r="AK87" s="8">
+        <f t="shared" si="29"/>
+        <v>197.49647712352632</v>
+      </c>
+      <c r="AL87" s="8">
+        <f t="shared" si="30"/>
+        <v>153.76210708013789</v>
+      </c>
+      <c r="AM87" s="8">
+        <f t="shared" si="31"/>
+        <v>259.01741212378329</v>
+      </c>
+      <c r="AN87" s="8">
+        <f t="shared" si="32"/>
+        <v>315.71026329654336</v>
+      </c>
+      <c r="AO87" s="8">
+        <f t="shared" si="33"/>
+        <v>154.2726877928342</v>
+      </c>
+      <c r="AP87" s="8">
+        <f t="shared" si="34"/>
+        <v>584.89116162651032</v>
+      </c>
+      <c r="AQ87" s="8">
+        <f t="shared" si="35"/>
+        <v>1106.4681129726453</v>
+      </c>
+      <c r="AR87" s="8">
+        <f t="shared" si="36"/>
+        <v>12.12966561782669</v>
+      </c>
+      <c r="AS87" s="8">
+        <f t="shared" si="37"/>
+        <v>11.674134188404976</v>
+      </c>
+      <c r="AV87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW87" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX87" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY87" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ87" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA87" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB87" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC87" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD87" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE87" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF87" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG87" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH87" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="3">
-        <f>IF(C13&lt;100,C13,R13)</f>
+        <f t="shared" si="0"/>
         <v>65.364758118537409</v>
       </c>
       <c r="D88" s="3">
-        <f>IF(D13&lt;100,D13,S13)</f>
+        <f t="shared" si="1"/>
         <v>74.086111751888112</v>
       </c>
       <c r="E88" s="3">
-        <f>IF(E13&lt;100,E13,T13)</f>
+        <f t="shared" si="2"/>
         <v>98.256062281922382</v>
       </c>
       <c r="F88" s="3">
-        <f>IF(F13&lt;100,F13,U13)</f>
+        <f t="shared" si="3"/>
         <v>2.9858683878614252</v>
       </c>
       <c r="G88" s="3">
-        <f>IF(G13&lt;100,G13,V13)</f>
+        <f t="shared" si="4"/>
         <v>4.9912600606787692</v>
       </c>
       <c r="H88" s="3">
-        <f>IF(H13&lt;100,H13,W13)</f>
+        <f t="shared" si="5"/>
         <v>7.6791470177162564</v>
       </c>
       <c r="I88" s="3">
-        <f>IF(I13&lt;100,I13,X13)</f>
+        <f t="shared" si="6"/>
         <v>76.842773129390409</v>
       </c>
       <c r="J88" s="3">
-        <f>IF(J13&lt;100,J13,Y13)</f>
+        <f t="shared" si="7"/>
         <v>170.48712850257448</v>
       </c>
       <c r="K88" s="3">
-        <f>IF(K13&lt;100,K13,Z13)</f>
+        <f t="shared" si="8"/>
         <v>29.351647725896537</v>
       </c>
       <c r="L88" s="3">
-        <f>IF(L13&lt;100,L13,AA13)</f>
+        <f t="shared" si="9"/>
         <v>2.7618979049409611</v>
       </c>
       <c r="M88" s="3">
-        <f>IF(M13&lt;100,M13,AB13)</f>
+        <f t="shared" si="10"/>
         <v>70.332889368649248</v>
       </c>
       <c r="N88" s="3">
-        <f>IF(N13&lt;100,N13,AC13)</f>
+        <f t="shared" si="11"/>
         <v>2.8365482283574579</v>
       </c>
       <c r="Q88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R88" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>9.5733772847958161</v>
       </c>
       <c r="S88" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>13.982513106179438</v>
       </c>
       <c r="T88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>12.2098552114618</v>
       </c>
       <c r="U88" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.21331298027404677</v>
       </c>
       <c r="V88" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.509482896595044</v>
       </c>
       <c r="W88" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.7973376885030823</v>
       </c>
       <c r="X88" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.9867918958627975</v>
       </c>
       <c r="Y88" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>13.056417406829908</v>
       </c>
       <c r="Z88" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>6.0450234865529122</v>
       </c>
       <c r="AA88" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>2.1781033111148058E-2</v>
       </c>
       <c r="AB88" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.9060749764875187</v>
       </c>
       <c r="AC88" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.28639220562553586</v>
       </c>
-    </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH88" s="8">
+        <f t="shared" si="26"/>
+        <v>183.29910527408902</v>
+      </c>
+      <c r="AI88" s="8">
+        <f t="shared" si="27"/>
+        <v>391.0213455289595</v>
+      </c>
+      <c r="AJ88" s="8">
+        <f t="shared" si="28"/>
+        <v>298.16112856972177</v>
+      </c>
+      <c r="AK88" s="8">
+        <f t="shared" si="29"/>
+        <v>9.1004855106791738E-2</v>
+      </c>
+      <c r="AL88" s="8">
+        <f t="shared" si="30"/>
+        <v>4.5570772302259286</v>
+      </c>
+      <c r="AM88" s="8">
+        <f t="shared" si="31"/>
+        <v>15.650196287039535</v>
+      </c>
+      <c r="AN88" s="8">
+        <f t="shared" si="32"/>
+        <v>71.683354408736932</v>
+      </c>
+      <c r="AO88" s="8">
+        <f t="shared" si="33"/>
+        <v>340.94007100274206</v>
+      </c>
+      <c r="AP88" s="8">
+        <f t="shared" si="34"/>
+        <v>73.084617905952655</v>
+      </c>
+      <c r="AQ88" s="8">
+        <f t="shared" si="35"/>
+        <v>9.4882680677785605E-4</v>
+      </c>
+      <c r="AR88" s="8">
+        <f t="shared" si="36"/>
+        <v>30.51484344388394</v>
+      </c>
+      <c r="AS88" s="8">
+        <f t="shared" si="37"/>
+        <v>0.16404099088611843</v>
+      </c>
+      <c r="AV88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW88" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX88" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY88" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ88" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA88" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB88" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC88" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD88" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE88" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF88" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG88" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH88" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="3">
-        <f>IF(C14&lt;100,C14,R14)</f>
+        <f t="shared" si="0"/>
         <v>81.424974753478466</v>
       </c>
       <c r="D89" s="3">
-        <f>IF(D14&lt;100,D14,S14)</f>
+        <f t="shared" si="1"/>
         <v>106.7811983702419</v>
       </c>
       <c r="E89" s="3">
-        <f>IF(E14&lt;100,E14,T14)</f>
+        <f t="shared" si="2"/>
         <v>95.77643931931658</v>
       </c>
       <c r="F89" s="3">
-        <f>IF(F14&lt;100,F14,U14)</f>
+        <f t="shared" si="3"/>
         <v>193.63494534073934</v>
       </c>
       <c r="G89" s="3">
-        <f>IF(G14&lt;100,G14,V14)</f>
+        <f t="shared" si="4"/>
         <v>2.8185733588817925</v>
       </c>
       <c r="H89" s="3">
-        <f>IF(H14&lt;100,H14,W14)</f>
+        <f t="shared" si="5"/>
         <v>169.37703490274828</v>
       </c>
       <c r="I89" s="3">
-        <f>IF(I14&lt;100,I14,X14)</f>
+        <f t="shared" si="6"/>
         <v>154.09922027706386</v>
       </c>
       <c r="J89" s="3">
-        <f>IF(J14&lt;100,J14,Y14)</f>
+        <f t="shared" si="7"/>
         <v>3.2020691180915342</v>
       </c>
       <c r="K89" s="3">
-        <f>IF(K14&lt;100,K14,Z14)</f>
+        <f t="shared" si="8"/>
         <v>90.623664207715379</v>
       </c>
       <c r="L89" s="3">
-        <f>IF(L14&lt;100,L14,AA14)</f>
+        <f t="shared" si="9"/>
         <v>106.45992735667927</v>
       </c>
       <c r="M89" s="3">
-        <f>IF(M14&lt;100,M14,AB14)</f>
+        <f t="shared" si="10"/>
         <v>75.248021710746073</v>
       </c>
       <c r="N89" s="3">
-        <f>IF(N14&lt;100,N14,AC14)</f>
+        <f t="shared" si="11"/>
         <v>2.8990341952905205</v>
       </c>
       <c r="Q89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="7">
+        <f t="shared" si="14"/>
+        <v>11.931175548534405</v>
+      </c>
+      <c r="S89" s="7">
+        <f t="shared" si="15"/>
+        <v>15.877739816773056</v>
+      </c>
+      <c r="T89" s="7">
+        <f t="shared" si="16"/>
+        <v>9.3409758761452775</v>
+      </c>
+      <c r="U89" s="7">
+        <f t="shared" si="17"/>
+        <v>16.047174466958303</v>
+      </c>
+      <c r="V89" s="7">
+        <f t="shared" si="18"/>
+        <v>0.26320060581410126</v>
+      </c>
+      <c r="W89" s="7">
+        <f t="shared" si="19"/>
+        <v>9.8521257056436333</v>
+      </c>
+      <c r="X89" s="7">
+        <f t="shared" si="20"/>
+        <v>19.648123305604642</v>
+      </c>
+      <c r="Y89" s="7">
+        <f t="shared" si="21"/>
+        <v>0.72941778983053474</v>
+      </c>
+      <c r="Z89" s="7">
+        <f t="shared" si="22"/>
+        <v>12.600451498412404</v>
+      </c>
+      <c r="AA89" s="7">
+        <f t="shared" si="23"/>
+        <v>22.905996686018501</v>
+      </c>
+      <c r="AB89" s="7">
+        <f t="shared" si="24"/>
+        <v>9.0475916717406513</v>
+      </c>
+      <c r="AC89" s="7">
+        <f t="shared" si="25"/>
+        <v>0.38724763800206657</v>
+      </c>
+      <c r="AG89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH89" s="8">
+        <f t="shared" si="26"/>
+        <v>284.70589993989051</v>
+      </c>
+      <c r="AI89" s="8">
+        <f t="shared" si="27"/>
+        <v>504.20524337828095</v>
+      </c>
+      <c r="AJ89" s="8">
+        <f t="shared" si="28"/>
+        <v>174.50766063745607</v>
+      </c>
+      <c r="AK89" s="8">
+        <f t="shared" si="29"/>
+        <v>515.02361674599706</v>
+      </c>
+      <c r="AL89" s="8">
+        <f t="shared" si="30"/>
+        <v>0.13854911780181983</v>
+      </c>
+      <c r="AM89" s="8">
+        <f t="shared" si="31"/>
+        <v>194.12876183960813</v>
+      </c>
+      <c r="AN89" s="8">
+        <f t="shared" si="32"/>
+        <v>772.09749886448856</v>
+      </c>
+      <c r="AO89" s="8">
+        <f t="shared" si="33"/>
+        <v>1.0641006242425244</v>
+      </c>
+      <c r="AP89" s="8">
+        <f t="shared" si="34"/>
+        <v>317.54275592768681</v>
+      </c>
+      <c r="AQ89" s="8">
+        <f t="shared" si="35"/>
+        <v>1049.369368359781</v>
+      </c>
+      <c r="AR89" s="8">
+        <f t="shared" si="36"/>
+        <v>163.71783011710158</v>
+      </c>
+      <c r="AS89" s="8">
+        <f t="shared" si="37"/>
+        <v>0.29992146627635918</v>
+      </c>
+      <c r="AV89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW89" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX89" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY89" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ89" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA89" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB89" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC89" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD89" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE89" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF89" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG89" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH89" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="0"/>
+        <v>264.4027771110168</v>
+      </c>
+      <c r="D90" s="3">
         <f t="shared" si="1"/>
-        <v>11.931175548534405</v>
-      </c>
-      <c r="S89" s="7">
+        <v>2.6591984773970885</v>
+      </c>
+      <c r="E90" s="3">
         <f t="shared" si="2"/>
-        <v>15.877739816773056</v>
-      </c>
-      <c r="T89" s="7">
+        <v>23.277549445318755</v>
+      </c>
+      <c r="F90" s="3">
         <f t="shared" si="3"/>
-        <v>9.3409758761452775</v>
-      </c>
-      <c r="U89" s="7">
+        <v>63.24523389678037</v>
+      </c>
+      <c r="G90" s="3">
         <f t="shared" si="4"/>
-        <v>16.047174466958303</v>
-      </c>
-      <c r="V89" s="7">
+        <v>2.793251144270537</v>
+      </c>
+      <c r="H90" s="3">
         <f t="shared" si="5"/>
-        <v>0.26320060581410126</v>
-      </c>
-      <c r="W89" s="7">
+        <v>3.7185594182626764</v>
+      </c>
+      <c r="I90" s="3">
         <f t="shared" si="6"/>
-        <v>9.8521257056436333</v>
-      </c>
-      <c r="X89" s="7">
+        <v>3.4712267219066462</v>
+      </c>
+      <c r="J90" s="3">
         <f t="shared" si="7"/>
-        <v>19.648123305604642</v>
-      </c>
-      <c r="Y89" s="7">
+        <v>31.773037882324086</v>
+      </c>
+      <c r="K90" s="3">
         <f t="shared" si="8"/>
-        <v>0.72941778983053474</v>
-      </c>
-      <c r="Z89" s="7">
+        <v>2.826313570872562</v>
+      </c>
+      <c r="L90" s="3">
         <f t="shared" si="9"/>
-        <v>12.600451498412404</v>
-      </c>
-      <c r="AA89" s="7">
+        <v>2.6902503112473064</v>
+      </c>
+      <c r="M90" s="3">
         <f t="shared" si="10"/>
-        <v>22.905996686018501</v>
-      </c>
-      <c r="AB89" s="7">
+        <v>13.349981274575972</v>
+      </c>
+      <c r="N90" s="3">
         <f t="shared" si="11"/>
-        <v>9.0475916717406513</v>
-      </c>
-      <c r="AC89" s="7">
-        <f t="shared" si="12"/>
-        <v>0.38724763800206657</v>
-      </c>
-    </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="3">
-        <f>IF(C15&lt;100,C15,R15)</f>
-        <v>264.4027771110168</v>
-      </c>
-      <c r="D90" s="3">
-        <f>IF(D15&lt;100,D15,S15)</f>
-        <v>2.6591984773970885</v>
-      </c>
-      <c r="E90" s="3">
-        <f>IF(E15&lt;100,E15,T15)</f>
-        <v>23.277549445318755</v>
-      </c>
-      <c r="F90" s="3">
-        <f>IF(F15&lt;100,F15,U15)</f>
-        <v>63.24523389678037</v>
-      </c>
-      <c r="G90" s="3">
-        <f>IF(G15&lt;100,G15,V15)</f>
-        <v>2.793251144270537</v>
-      </c>
-      <c r="H90" s="3">
-        <f>IF(H15&lt;100,H15,W15)</f>
-        <v>3.7185594182626764</v>
-      </c>
-      <c r="I90" s="3">
-        <f>IF(I15&lt;100,I15,X15)</f>
-        <v>3.4712267219066462</v>
-      </c>
-      <c r="J90" s="3">
-        <f>IF(J15&lt;100,J15,Y15)</f>
-        <v>31.773037882324086</v>
-      </c>
-      <c r="K90" s="3">
-        <f>IF(K15&lt;100,K15,Z15)</f>
-        <v>2.826313570872562</v>
-      </c>
-      <c r="L90" s="3">
-        <f>IF(L15&lt;100,L15,AA15)</f>
-        <v>2.6902503112473064</v>
-      </c>
-      <c r="M90" s="3">
-        <f>IF(M15&lt;100,M15,AB15)</f>
-        <v>13.349981274575972</v>
-      </c>
-      <c r="N90" s="3">
-        <f>IF(N15&lt;100,N15,AC15)</f>
         <v>65.936289064992692</v>
       </c>
       <c r="Q90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R90" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.708013473230463</v>
       </c>
       <c r="S90" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>1.3874782885209014E-2</v>
       </c>
       <c r="T90" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>7.6945158236901987</v>
       </c>
       <c r="U90" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>15.627960909293973</v>
       </c>
       <c r="V90" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.18961392376081529</v>
       </c>
       <c r="W90" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.1027507857605734</v>
       </c>
       <c r="X90" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.4603783255377728</v>
       </c>
       <c r="Y90" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.0632422768344094</v>
       </c>
       <c r="Z90" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0.15350780548654247</v>
       </c>
       <c r="AA90" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>3.8808505088316063E-2</v>
       </c>
       <c r="AB90" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.1499091417292835</v>
       </c>
       <c r="AC90" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>19.530642196431586</v>
       </c>
-    </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH90" s="8">
+        <f t="shared" si="26"/>
+        <v>14.666673942395432</v>
+      </c>
+      <c r="AI90" s="8">
+        <f t="shared" si="27"/>
+        <v>3.8501920022337792E-4</v>
+      </c>
+      <c r="AJ90" s="8">
+        <f t="shared" si="28"/>
+        <v>118.41114752203771</v>
+      </c>
+      <c r="AK90" s="8">
+        <f t="shared" si="29"/>
+        <v>488.466324364841</v>
+      </c>
+      <c r="AL90" s="8">
+        <f t="shared" si="30"/>
+        <v>7.190688016794454E-2</v>
+      </c>
+      <c r="AM90" s="8">
+        <f t="shared" si="31"/>
+        <v>2.432118590991124</v>
+      </c>
+      <c r="AN90" s="8">
+        <f t="shared" si="32"/>
+        <v>0.423896405249927</v>
+      </c>
+      <c r="AO90" s="8">
+        <f t="shared" si="33"/>
+        <v>8.5139373858336747</v>
+      </c>
+      <c r="AP90" s="8">
+        <f t="shared" si="34"/>
+        <v>4.7129292690588319E-2</v>
+      </c>
+      <c r="AQ90" s="8">
+        <f t="shared" si="35"/>
+        <v>3.0122001343797075E-3</v>
+      </c>
+      <c r="AR90" s="8">
+        <f t="shared" si="36"/>
+        <v>53.043128336133691</v>
+      </c>
+      <c r="AS90" s="8">
+        <f t="shared" si="37"/>
+        <v>762.89196921006805</v>
+      </c>
+      <c r="AV90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW90" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX90" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY90" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ90" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA90" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB90" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC90" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD90" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE90" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF90" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG90" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH90" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="3">
-        <f>IF(C16&lt;100,C16,R16)</f>
+        <f t="shared" si="0"/>
         <v>4.3064046664672162</v>
       </c>
       <c r="D91" s="3">
-        <f>IF(D16&lt;100,D16,S16)</f>
+        <f t="shared" si="1"/>
         <v>7.5936866408666033</v>
       </c>
       <c r="E91" s="3">
-        <f>IF(E16&lt;100,E16,T16)</f>
+        <f t="shared" si="2"/>
         <v>5.7589915300746384</v>
       </c>
       <c r="F91" s="3">
-        <f>IF(F16&lt;100,F16,U16)</f>
+        <f t="shared" si="3"/>
         <v>2.7902964111529323</v>
       </c>
       <c r="G91" s="3">
-        <f>IF(G16&lt;100,G16,V16)</f>
+        <f t="shared" si="4"/>
         <v>2.7895312081494033</v>
       </c>
       <c r="H91" s="3">
-        <f>IF(H16&lt;100,H16,W16)</f>
+        <f t="shared" si="5"/>
         <v>29.289363299239579</v>
       </c>
       <c r="I91" s="3">
-        <f>IF(I16&lt;100,I16,X16)</f>
+        <f t="shared" si="6"/>
         <v>306.83485557979833</v>
       </c>
       <c r="J91" s="3">
-        <f>IF(J16&lt;100,J16,Y16)</f>
+        <f t="shared" si="7"/>
         <v>236.21991636853411</v>
       </c>
       <c r="K91" s="3">
-        <f>IF(K16&lt;100,K16,Z16)</f>
+        <f t="shared" si="8"/>
         <v>90.360247465926236</v>
       </c>
       <c r="L91" s="3">
-        <f>IF(L16&lt;100,L16,AA16)</f>
+        <f t="shared" si="9"/>
         <v>2.7828980880555605</v>
       </c>
       <c r="M91" s="3">
-        <f>IF(M16&lt;100,M16,AB16)</f>
+        <f t="shared" si="10"/>
         <v>67.639255881991289</v>
       </c>
       <c r="N91" s="3">
-        <f>IF(N16&lt;100,N16,AC16)</f>
+        <f t="shared" si="11"/>
         <v>2.6678964076088127</v>
       </c>
       <c r="Q91" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R91" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.79177455553227027</v>
       </c>
       <c r="S91" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>0.24764230474431193</v>
       </c>
       <c r="T91" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0.46503357674436774</v>
       </c>
       <c r="U91" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>8.9296768639921476E-2</v>
       </c>
       <c r="V91" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.13864663441901851</v>
       </c>
       <c r="W91" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.2381554677090545</v>
       </c>
       <c r="X91" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.7467106371510503</v>
       </c>
       <c r="Y91" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>9.5028523203879853</v>
       </c>
       <c r="Z91" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>5.315705233836745</v>
       </c>
       <c r="AA91" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0.22154713307171683</v>
       </c>
       <c r="AB91" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.4187157553882805</v>
       </c>
       <c r="AC91" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.2922317316545997E-2</v>
       </c>
-    </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH91" s="8">
+        <f t="shared" si="26"/>
+        <v>1.2538138935766483</v>
+      </c>
+      <c r="AI91" s="8">
+        <f t="shared" si="27"/>
+        <v>0.12265342219814931</v>
+      </c>
+      <c r="AJ91" s="8">
+        <f t="shared" si="28"/>
+        <v>0.43251245499931951</v>
+      </c>
+      <c r="AK91" s="8">
+        <f t="shared" si="29"/>
+        <v>1.5947825779063327E-2</v>
+      </c>
+      <c r="AL91" s="8">
+        <f t="shared" si="30"/>
+        <v>3.8445778471441934E-2</v>
+      </c>
+      <c r="AM91" s="8">
+        <f t="shared" si="31"/>
+        <v>77.829167278616751</v>
+      </c>
+      <c r="AN91" s="8">
+        <f t="shared" si="32"/>
+        <v>66.049366294290067</v>
+      </c>
+      <c r="AO91" s="8">
+        <f t="shared" si="33"/>
+        <v>180.60840444620663</v>
+      </c>
+      <c r="AP91" s="8">
+        <f t="shared" si="34"/>
+        <v>56.513444266078729</v>
+      </c>
+      <c r="AQ91" s="8">
+        <f t="shared" si="35"/>
+        <v>9.8166264344594009E-2</v>
+      </c>
+      <c r="AR91" s="8">
+        <f t="shared" si="36"/>
+        <v>110.07468691849262</v>
+      </c>
+      <c r="AS91" s="8">
+        <f t="shared" si="37"/>
+        <v>2.167757954982689E-3</v>
+      </c>
+      <c r="AV91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW91" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX91" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY91" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ91" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA91" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB91" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC91" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD91" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE91" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF91" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG91" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH91" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C92" s="3">
-        <f>IF(C17&lt;100,C17,R17)</f>
+        <f t="shared" si="0"/>
         <v>2.7099136421815708</v>
       </c>
       <c r="D92" s="3">
-        <f>IF(D17&lt;100,D17,S17)</f>
+        <f t="shared" si="1"/>
         <v>2.8992051997491521</v>
       </c>
       <c r="E92" s="3">
-        <f>IF(E17&lt;100,E17,T17)</f>
+        <f t="shared" si="2"/>
         <v>2.9504502924188878</v>
       </c>
       <c r="F92" s="3">
-        <f>IF(F17&lt;100,F17,U17)</f>
+        <f t="shared" si="3"/>
         <v>2.7509503495430558</v>
       </c>
       <c r="G92" s="3">
-        <f>IF(G17&lt;100,G17,V17)</f>
+        <f t="shared" si="4"/>
         <v>2.9927296972798367</v>
       </c>
       <c r="H92" s="3">
-        <f>IF(H17&lt;100,H17,W17)</f>
+        <f t="shared" si="5"/>
         <v>151.40095619991723</v>
       </c>
       <c r="I92" s="3">
-        <f>IF(I17&lt;100,I17,X17)</f>
+        <f t="shared" si="6"/>
         <v>10.351386225920379</v>
       </c>
       <c r="J92" s="3">
-        <f>IF(J17&lt;100,J17,Y17)</f>
+        <f t="shared" si="7"/>
         <v>62.155791674085357</v>
       </c>
       <c r="K92" s="3">
-        <f>IF(K17&lt;100,K17,Z17)</f>
+        <f t="shared" si="8"/>
         <v>2.6685798368317442</v>
       </c>
       <c r="L92" s="3">
-        <f>IF(L17&lt;100,L17,AA17)</f>
+        <f t="shared" si="9"/>
         <v>68.284204109629684</v>
       </c>
       <c r="M92" s="3">
-        <f>IF(M17&lt;100,M17,AB17)</f>
+        <f t="shared" si="10"/>
         <v>4.9962833427574651</v>
       </c>
       <c r="N92" s="3">
-        <f>IF(N17&lt;100,N17,AC17)</f>
+        <f t="shared" si="11"/>
         <v>16.629840783239178</v>
       </c>
       <c r="Q92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.0031744073860208E-2</v>
       </c>
       <c r="S92" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>0.21832619109338006</v>
       </c>
       <c r="T92" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0.22488535731913303</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>7.3206540561195965E-2</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.16524626069102596</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>45.225251542851957</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.0027017832970082</v>
       </c>
       <c r="Y92" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>20.423250206926376</v>
       </c>
       <c r="Z92" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>1.7580526536764032E-2</v>
       </c>
       <c r="AA92" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>22.269027398537066</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.6951230524836844</v>
       </c>
       <c r="AC92" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.6793895074672589</v>
       </c>
-    </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="8">
+        <f t="shared" si="26"/>
+        <v>2.0127177832685882E-4</v>
+      </c>
+      <c r="AI92" s="8">
+        <f t="shared" si="27"/>
+        <v>9.5332651434686208E-2</v>
+      </c>
+      <c r="AJ92" s="8">
+        <f t="shared" si="28"/>
+        <v>0.10114684787310828</v>
+      </c>
+      <c r="AK92" s="8">
+        <f t="shared" si="29"/>
+        <v>1.071839516187606E-2</v>
+      </c>
+      <c r="AL92" s="8">
+        <f t="shared" si="30"/>
+        <v>5.4612653344733024E-2</v>
+      </c>
+      <c r="AM92" s="8">
+        <f t="shared" si="31"/>
+        <v>4090.6467542284668</v>
+      </c>
+      <c r="AN92" s="8">
+        <f t="shared" si="32"/>
+        <v>18.032435998830067</v>
+      </c>
+      <c r="AO92" s="8">
+        <f t="shared" si="33"/>
+        <v>834.21829802943648</v>
+      </c>
+      <c r="AP92" s="8">
+        <f t="shared" si="34"/>
+        <v>6.1814982661972863E-4</v>
+      </c>
+      <c r="AQ92" s="8">
+        <f t="shared" si="35"/>
+        <v>991.81916255358908</v>
+      </c>
+      <c r="AR92" s="8">
+        <f t="shared" si="36"/>
+        <v>5.7468843261232081</v>
+      </c>
+      <c r="AS92" s="8">
+        <f t="shared" si="37"/>
+        <v>43.793372325189353</v>
+      </c>
+      <c r="AV92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW92" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX92" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY92" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ92" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA92" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB92" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC92" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD92" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE92" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF92" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG92" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH92" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="3">
-        <f>IF(C18&lt;100,C18,R18)</f>
+        <f t="shared" si="0"/>
         <v>3.408268141218239</v>
       </c>
       <c r="D93" s="3">
-        <f>IF(D18&lt;100,D18,S18)</f>
+        <f t="shared" si="1"/>
         <v>3.6278112614275719</v>
       </c>
       <c r="E93" s="3">
-        <f>IF(E18&lt;100,E18,T18)</f>
+        <f t="shared" si="2"/>
         <v>22.296157724757791</v>
       </c>
       <c r="F93" s="3">
-        <f>IF(F18&lt;100,F18,U18)</f>
+        <f t="shared" si="3"/>
         <v>5.6858101256556681</v>
       </c>
       <c r="G93" s="3">
-        <f>IF(G18&lt;100,G18,V18)</f>
+        <f t="shared" si="4"/>
         <v>35.751314123347221</v>
       </c>
       <c r="H93" s="3">
-        <f>IF(H18&lt;100,H18,W18)</f>
+        <f t="shared" si="5"/>
         <v>5.8110198492675238</v>
       </c>
       <c r="I93" s="3">
-        <f>IF(I18&lt;100,I18,X18)</f>
+        <f t="shared" si="6"/>
         <v>2.7746763066319318</v>
       </c>
       <c r="J93" s="3">
-        <f>IF(J18&lt;100,J18,Y18)</f>
+        <f t="shared" si="7"/>
         <v>122.66560607506425</v>
       </c>
       <c r="K93" s="3">
-        <f>IF(K18&lt;100,K18,Z18)</f>
+        <f t="shared" si="8"/>
         <v>66.305012485986595</v>
       </c>
       <c r="L93" s="3">
-        <f>IF(L18&lt;100,L18,AA18)</f>
+        <f t="shared" si="9"/>
         <v>2.712413972563477</v>
       </c>
       <c r="M93" s="3">
-        <f>IF(M18&lt;100,M18,AB18)</f>
+        <f t="shared" si="10"/>
         <v>3.2436875137598329</v>
       </c>
       <c r="N93" s="3">
-        <f>IF(N18&lt;100,N18,AC18)</f>
+        <f t="shared" si="11"/>
         <v>156.70306632808786</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R93" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.20053017027833109</v>
       </c>
       <c r="S93" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>0.60216428958396695</v>
       </c>
       <c r="T93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>8.610171518006279</v>
       </c>
       <c r="U93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.63755754957586996</v>
       </c>
       <c r="V93" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>3.0099104175195812</v>
       </c>
       <c r="W93" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.99544464063762861</v>
       </c>
       <c r="X93" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.1443819158347282</v>
       </c>
       <c r="Y93" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>13.753742868590487</v>
       </c>
       <c r="Z93" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>7.5392408960950803</v>
       </c>
       <c r="AA93" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>3.3976743804523007E-2</v>
       </c>
       <c r="AB93" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.44890293797993541</v>
       </c>
       <c r="AC93" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>24.428980393103288</v>
       </c>
-    </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH93" s="8">
+        <f t="shared" si="26"/>
+        <v>8.0424698383712925E-2</v>
+      </c>
+      <c r="AI93" s="8">
+        <f t="shared" si="27"/>
+        <v>0.72520366330032726</v>
+      </c>
+      <c r="AJ93" s="8">
+        <f t="shared" si="28"/>
+        <v>148.27010713897309</v>
+      </c>
+      <c r="AK93" s="8">
+        <f t="shared" si="29"/>
+        <v>0.81295925804237579</v>
+      </c>
+      <c r="AL93" s="8">
+        <f t="shared" si="30"/>
+        <v>18.119121442985801</v>
+      </c>
+      <c r="AM93" s="8">
+        <f t="shared" si="31"/>
+        <v>1.9818200651483551</v>
+      </c>
+      <c r="AN93" s="8">
+        <f t="shared" si="32"/>
+        <v>4.1692275240213079E-2</v>
+      </c>
+      <c r="AO93" s="8">
+        <f t="shared" si="33"/>
+        <v>378.3308857906074</v>
+      </c>
+      <c r="AP93" s="8">
+        <f t="shared" si="34"/>
+        <v>113.6803065787051</v>
+      </c>
+      <c r="AQ93" s="8">
+        <f t="shared" si="35"/>
+        <v>2.3088382391163852E-3</v>
+      </c>
+      <c r="AR93" s="8">
+        <f t="shared" si="36"/>
+        <v>0.4030276954540355</v>
+      </c>
+      <c r="AS93" s="8">
+        <f t="shared" si="37"/>
+        <v>1193.5501660932498</v>
+      </c>
+      <c r="AV93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW93" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX93" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY93" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ93" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA93" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB93" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC93" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD93" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE93" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF93" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG93" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH93" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="3">
-        <f>IF(C19&lt;100,C19,R19)</f>
+        <f t="shared" si="0"/>
         <v>3.4670420722924669</v>
       </c>
       <c r="D94" s="3">
-        <f>IF(D19&lt;100,D19,S19)</f>
+        <f t="shared" si="1"/>
         <v>2.7482775597345608</v>
       </c>
       <c r="E94" s="3">
-        <f>IF(E19&lt;100,E19,T19)</f>
+        <f t="shared" si="2"/>
         <v>2.6704644506902375</v>
       </c>
       <c r="F94" s="3">
-        <f>IF(F19&lt;100,F19,U19)</f>
+        <f t="shared" si="3"/>
         <v>33.812312944642201</v>
       </c>
       <c r="G94" s="3">
-        <f>IF(G19&lt;100,G19,V19)</f>
+        <f t="shared" si="4"/>
         <v>82.792560068470905</v>
       </c>
       <c r="H94" s="3">
-        <f>IF(H19&lt;100,H19,W19)</f>
+        <f t="shared" si="5"/>
         <v>82.483350242197247</v>
       </c>
       <c r="I94" s="3">
-        <f>IF(I19&lt;100,I19,X19)</f>
+        <f t="shared" si="6"/>
         <v>49.968764082192799</v>
       </c>
       <c r="J94" s="3">
-        <f>IF(J19&lt;100,J19,Y19)</f>
+        <f t="shared" si="7"/>
         <v>3.2313631726319727</v>
       </c>
       <c r="K94" s="3">
-        <f>IF(K19&lt;100,K19,Z19)</f>
+        <f t="shared" si="8"/>
         <v>2.6694029145976024</v>
       </c>
       <c r="L94" s="3">
-        <f>IF(L19&lt;100,L19,AA19)</f>
+        <f t="shared" si="9"/>
         <v>33.536495020522146</v>
       </c>
       <c r="M94" s="3">
-        <f>IF(M19&lt;100,M19,AB19)</f>
+        <f t="shared" si="10"/>
         <v>2.9213376546504435</v>
       </c>
       <c r="N94" s="3">
-        <f>IF(N19&lt;100,N19,AC19)</f>
+        <f t="shared" si="11"/>
         <v>2.9332441581432156</v>
       </c>
       <c r="Q94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="R94" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.34494585219401086</v>
       </c>
       <c r="S94" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>8.4920267220266535E-2</v>
       </c>
       <c r="T94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>2.4443557809917148E-2</v>
       </c>
       <c r="U94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>6.6041680513675205</v>
       </c>
       <c r="V94" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.5983442407964974</v>
       </c>
       <c r="W94" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>9.0095916438821195</v>
       </c>
       <c r="X94" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>6.1971754944335435</v>
       </c>
       <c r="Y94" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.52062156191859621</v>
       </c>
       <c r="Z94" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>2.3032753962258158E-2</v>
       </c>
       <c r="AA94" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>8.0150977217599184</v>
       </c>
       <c r="AB94" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.34761688623316306</v>
       </c>
       <c r="AC94" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.22213132293541396</v>
       </c>
-    </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH94" s="8">
+        <f t="shared" si="26"/>
+        <v>0.23797528189170478</v>
+      </c>
+      <c r="AI94" s="8">
+        <f t="shared" si="27"/>
+        <v>1.442290356952295E-2</v>
+      </c>
+      <c r="AJ94" s="8">
+        <f t="shared" si="28"/>
+        <v>1.1949750368135232E-3</v>
+      </c>
+      <c r="AK94" s="8">
+        <f t="shared" si="29"/>
+        <v>87.230071301406952</v>
+      </c>
+      <c r="AL94" s="8">
+        <f t="shared" si="30"/>
+        <v>62.682916476918621</v>
+      </c>
+      <c r="AM94" s="8">
+        <f t="shared" si="31"/>
+        <v>162.34548317902102</v>
+      </c>
+      <c r="AN94" s="8">
+        <f t="shared" si="32"/>
+        <v>76.809968217615264</v>
+      </c>
+      <c r="AO94" s="8">
+        <f t="shared" si="33"/>
+        <v>0.54209362146911744</v>
+      </c>
+      <c r="AP94" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0610155101718377E-3</v>
+      </c>
+      <c r="AQ94" s="8">
+        <f t="shared" si="35"/>
+        <v>128.48358297872207</v>
+      </c>
+      <c r="AR94" s="8">
+        <f t="shared" si="36"/>
+        <v>0.24167499918887966</v>
+      </c>
+      <c r="AS94" s="8">
+        <f t="shared" si="37"/>
+        <v>9.8684649258074325E-2</v>
+      </c>
+      <c r="AV94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW94" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX94" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY94" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ94" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA94" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB94" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC94" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD94" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE94" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF94" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG94" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH94" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="3">
-        <f>IF(C20&lt;100,C20,R20)</f>
+        <f t="shared" si="0"/>
         <v>2.6958384601954797</v>
       </c>
       <c r="D95" s="3">
-        <f>IF(D20&lt;100,D20,S20)</f>
+        <f t="shared" si="1"/>
         <v>2.8663155188656995</v>
       </c>
       <c r="E95" s="3">
-        <f>IF(E20&lt;100,E20,T20)</f>
+        <f t="shared" si="2"/>
         <v>2.9298245851204001</v>
       </c>
       <c r="F95" s="3">
-        <f>IF(F20&lt;100,F20,U20)</f>
+        <f t="shared" si="3"/>
         <v>95.551345934734869</v>
       </c>
       <c r="G95" s="3">
-        <f>IF(G20&lt;100,G20,V20)</f>
+        <f t="shared" si="4"/>
         <v>99.085088273555982</v>
       </c>
       <c r="H95" s="3">
-        <f>IF(H20&lt;100,H20,W20)</f>
+        <f t="shared" si="5"/>
         <v>3.2293676509599343</v>
       </c>
       <c r="I95" s="3">
-        <f>IF(I20&lt;100,I20,X20)</f>
+        <f t="shared" si="6"/>
         <v>2.9637374090354549</v>
       </c>
       <c r="J95" s="3">
-        <f>IF(J20&lt;100,J20,Y20)</f>
+        <f t="shared" si="7"/>
         <v>2.7391665747618865</v>
       </c>
       <c r="K95" s="3">
-        <f>IF(K20&lt;100,K20,Z20)</f>
+        <f t="shared" si="8"/>
         <v>34.949173780010163</v>
       </c>
       <c r="L95" s="3">
-        <f>IF(L20&lt;100,L20,AA20)</f>
+        <f t="shared" si="9"/>
         <v>2.6956851769254704</v>
       </c>
       <c r="M95" s="3">
-        <f>IF(M20&lt;100,M20,AB20)</f>
+        <f t="shared" si="10"/>
         <v>200.71007624125971</v>
       </c>
       <c r="N95" s="3">
-        <f>IF(N20&lt;100,N20,AC20)</f>
+        <f t="shared" si="11"/>
         <v>81.214890886043619</v>
       </c>
       <c r="Q95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R95" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>4.7468407946885026E-2</v>
       </c>
       <c r="S95" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>0.21363684404085739</v>
       </c>
       <c r="T95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0.2287982651072176</v>
       </c>
       <c r="U95" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>7.9459541776709504</v>
       </c>
       <c r="V95" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>3.851226395990146</v>
       </c>
       <c r="W95" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.32722809668160052</v>
       </c>
       <c r="X95" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.43090222511774573</v>
       </c>
       <c r="Y95" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.16535901058500954</v>
       </c>
       <c r="Z95" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>5.9694308245831964</v>
       </c>
       <c r="AA95" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>7.6491233300020667E-2</v>
       </c>
       <c r="AB95" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.6123075143141374</v>
       </c>
       <c r="AC95" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>6.9749158008949896</v>
       </c>
-    </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH95" s="8">
+        <f t="shared" si="26"/>
+        <v>4.5064995060237947E-3</v>
+      </c>
+      <c r="AI95" s="8">
+        <f t="shared" si="27"/>
+        <v>9.1281402263475253E-2</v>
+      </c>
+      <c r="AJ95" s="8">
+        <f t="shared" si="28"/>
+        <v>0.10469729223214524</v>
+      </c>
+      <c r="AK95" s="8">
+        <f t="shared" si="29"/>
+        <v>126.27637558729286</v>
+      </c>
+      <c r="AL95" s="8">
+        <f t="shared" si="30"/>
+        <v>29.6638895063425</v>
+      </c>
+      <c r="AM95" s="8">
+        <f t="shared" si="31"/>
+        <v>0.21415645451572579</v>
+      </c>
+      <c r="AN95" s="8">
+        <f t="shared" si="32"/>
+        <v>0.37135345522284885</v>
+      </c>
+      <c r="AO95" s="8">
+        <f t="shared" si="33"/>
+        <v>5.4687204763306595E-2</v>
+      </c>
+      <c r="AP95" s="8">
+        <f t="shared" si="34"/>
+        <v>71.268208738968042</v>
+      </c>
+      <c r="AQ95" s="8">
+        <f t="shared" si="35"/>
+        <v>1.1701817543516381E-2</v>
+      </c>
+      <c r="AR95" s="8">
+        <f t="shared" si="36"/>
+        <v>13.648301098684215</v>
+      </c>
+      <c r="AS95" s="8">
+        <f t="shared" si="37"/>
+        <v>97.298900859149185</v>
+      </c>
+      <c r="AV95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW95" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX95" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY95" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ95" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA95" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB95" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC95" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD95" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE95" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF95" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG95" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH95" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="3">
-        <f>IF(C21&lt;100,C21,R21)</f>
+        <f t="shared" si="0"/>
         <v>12.39623167965714</v>
       </c>
       <c r="D96" s="3">
-        <f>IF(D21&lt;100,D21,S21)</f>
+        <f t="shared" si="1"/>
         <v>3.0119447148235374</v>
       </c>
       <c r="E96" s="3">
-        <f>IF(E21&lt;100,E21,T21)</f>
+        <f t="shared" si="2"/>
         <v>6.1771774733144014</v>
       </c>
       <c r="F96" s="3">
-        <f>IF(F21&lt;100,F21,U21)</f>
+        <f t="shared" si="3"/>
         <v>87.8878715262951</v>
       </c>
       <c r="G96" s="3">
-        <f>IF(G21&lt;100,G21,V21)</f>
+        <f t="shared" si="4"/>
         <v>3.7619723257024305</v>
       </c>
       <c r="H96" s="3">
-        <f>IF(H21&lt;100,H21,W21)</f>
+        <f t="shared" si="5"/>
         <v>67.541503552032054</v>
       </c>
       <c r="I96" s="3">
-        <f>IF(I21&lt;100,I21,X21)</f>
+        <f t="shared" si="6"/>
         <v>43.373299426137464</v>
       </c>
       <c r="J96" s="3">
-        <f>IF(J21&lt;100,J21,Y21)</f>
+        <f t="shared" si="7"/>
         <v>4.1722070102696023</v>
       </c>
       <c r="K96" s="3">
-        <f>IF(K21&lt;100,K21,Z21)</f>
+        <f t="shared" si="8"/>
         <v>14.794867850081877</v>
       </c>
       <c r="L96" s="3">
-        <f>IF(L21&lt;100,L21,AA21)</f>
+        <f t="shared" si="9"/>
         <v>2.8616159179870144</v>
       </c>
       <c r="M96" s="3">
-        <f>IF(M21&lt;100,M21,AB21)</f>
+        <f t="shared" si="10"/>
         <v>52.669891605719762</v>
       </c>
       <c r="N96" s="3">
-        <f>IF(N21&lt;100,N21,AC21)</f>
+        <f t="shared" si="11"/>
         <v>119.11891993273309</v>
       </c>
       <c r="Q96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R96" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>6.9281779356152855</v>
       </c>
       <c r="S96" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>0.48339775778815697</v>
       </c>
       <c r="T96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>2.376837215680601</v>
       </c>
       <c r="U96" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>16.913763058655167</v>
       </c>
       <c r="V96" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1512330249687812</v>
       </c>
       <c r="W96" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>15.901563661136718</v>
       </c>
       <c r="X96" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>15.402511010331896</v>
       </c>
       <c r="Y96" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.1356110873534331</v>
       </c>
       <c r="Z96" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>4.5658052157429569</v>
       </c>
       <c r="AA96" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0.37550151571056306</v>
       </c>
       <c r="AB96" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>8.2733955080193979</v>
       </c>
       <c r="AC96" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>15.771047152045325</v>
       </c>
-    </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH96" s="8">
+        <f t="shared" si="26"/>
+        <v>95.999299015092959</v>
+      </c>
+      <c r="AI96" s="8">
+        <f t="shared" si="27"/>
+        <v>0.46734678446923533</v>
+      </c>
+      <c r="AJ96" s="8">
+        <f t="shared" si="28"/>
+        <v>11.298710299688624</v>
+      </c>
+      <c r="AK96" s="8">
+        <f t="shared" si="29"/>
+        <v>572.15076160865635</v>
+      </c>
+      <c r="AL96" s="8">
+        <f t="shared" si="30"/>
+        <v>2.6506749555575411</v>
+      </c>
+      <c r="AM96" s="8">
+        <f t="shared" si="31"/>
+        <v>505.71945373836758</v>
+      </c>
+      <c r="AN96" s="8">
+        <f t="shared" si="32"/>
+        <v>474.47469084679057</v>
+      </c>
+      <c r="AO96" s="8">
+        <f t="shared" si="33"/>
+        <v>2.5792250834400932</v>
+      </c>
+      <c r="AP96" s="8">
+        <f t="shared" si="34"/>
+        <v>41.693154536211182</v>
+      </c>
+      <c r="AQ96" s="8">
+        <f t="shared" si="35"/>
+        <v>0.28200277660186046</v>
+      </c>
+      <c r="AR96" s="8">
+        <f t="shared" si="36"/>
+        <v>136.8981464642311</v>
+      </c>
+      <c r="AS96" s="8">
+        <f t="shared" si="37"/>
+        <v>497.45185654407391</v>
+      </c>
+      <c r="AV96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW96" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX96" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY96" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ96" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA96" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB96" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC96" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD96" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE96" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF96" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG96" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH96" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="3">
-        <f>IF(C22&lt;100,C22,R22)</f>
+        <f t="shared" si="0"/>
         <v>2.6979579469709734</v>
       </c>
       <c r="D97" s="3">
-        <f>IF(D22&lt;100,D22,S22)</f>
+        <f t="shared" si="1"/>
         <v>2.6998589519517111</v>
       </c>
       <c r="E97" s="3">
-        <f>IF(E22&lt;100,E22,T22)</f>
+        <f t="shared" si="2"/>
         <v>5.5330102732898085</v>
       </c>
       <c r="F97" s="3">
-        <f>IF(F22&lt;100,F22,U22)</f>
+        <f t="shared" si="3"/>
         <v>86.6348824851638</v>
       </c>
       <c r="G97" s="3">
-        <f>IF(G22&lt;100,G22,V22)</f>
+        <f t="shared" si="4"/>
         <v>85.825250561863228</v>
       </c>
       <c r="H97" s="3">
-        <f>IF(H22&lt;100,H22,W22)</f>
+        <f t="shared" si="5"/>
         <v>87.128667530407597</v>
       </c>
       <c r="I97" s="3">
-        <f>IF(I22&lt;100,I22,X22)</f>
+        <f t="shared" si="6"/>
         <v>91.502322295926987</v>
       </c>
       <c r="J97" s="3">
-        <f>IF(J22&lt;100,J22,Y22)</f>
+        <f t="shared" si="7"/>
         <v>8.7507957651966048</v>
       </c>
       <c r="K97" s="3">
-        <f>IF(K22&lt;100,K22,Z22)</f>
+        <f t="shared" si="8"/>
         <v>94.69616299255398</v>
       </c>
       <c r="L97" s="3">
-        <f>IF(L22&lt;100,L22,AA22)</f>
+        <f t="shared" si="9"/>
         <v>25.018426052469596</v>
       </c>
       <c r="M97" s="3">
-        <f>IF(M22&lt;100,M22,AB22)</f>
+        <f t="shared" si="10"/>
         <v>87.317587007203144</v>
       </c>
       <c r="N97" s="3">
-        <f>IF(N22&lt;100,N22,AC22)</f>
+        <f t="shared" si="11"/>
         <v>126.39151092750672</v>
       </c>
       <c r="Q97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R97" s="7">
+        <f t="shared" si="14"/>
+        <v>2.6715628823034531E-2</v>
+      </c>
+      <c r="S97" s="7">
+        <f t="shared" si="15"/>
+        <v>4.8330756339743375E-2</v>
+      </c>
+      <c r="T97" s="7">
+        <f t="shared" si="16"/>
+        <v>4.9800276352001065</v>
+      </c>
+      <c r="U97" s="7">
+        <f t="shared" si="17"/>
+        <v>23.5151293681024</v>
+      </c>
+      <c r="V97" s="7">
+        <f t="shared" si="18"/>
+        <v>23.435457004230109</v>
+      </c>
+      <c r="W97" s="7">
+        <f t="shared" si="19"/>
+        <v>9.6959302086402825</v>
+      </c>
+      <c r="X97" s="7">
+        <f t="shared" si="20"/>
+        <v>5.4932099801136376</v>
+      </c>
+      <c r="Y97" s="7">
+        <f t="shared" si="21"/>
+        <v>1.1501239867598338</v>
+      </c>
+      <c r="Z97" s="7">
+        <f t="shared" si="22"/>
+        <v>6.6592396526094797</v>
+      </c>
+      <c r="AA97" s="7">
+        <f t="shared" si="23"/>
+        <v>1.2248738048831782</v>
+      </c>
+      <c r="AB97" s="7">
+        <f t="shared" si="24"/>
+        <v>5.191197793329132</v>
+      </c>
+      <c r="AC97" s="7">
+        <f t="shared" si="25"/>
+        <v>28.041885239135549</v>
+      </c>
+      <c r="AG97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH97" s="8">
+        <f t="shared" si="26"/>
+        <v>1.4274496468203069E-3</v>
+      </c>
+      <c r="AI97" s="8">
+        <f t="shared" si="27"/>
+        <v>4.6717240167432885E-3</v>
+      </c>
+      <c r="AJ97" s="8">
+        <f t="shared" si="28"/>
+        <v>49.601350494713529</v>
+      </c>
+      <c r="AK97" s="8">
+        <f t="shared" si="29"/>
+        <v>1105.9226183971839</v>
+      </c>
+      <c r="AL97" s="8">
+        <f t="shared" si="30"/>
+        <v>1098.4412899942361</v>
+      </c>
+      <c r="AM97" s="8">
+        <f t="shared" si="31"/>
+        <v>188.02212522164638</v>
+      </c>
+      <c r="AN97" s="8">
+        <f t="shared" si="32"/>
+        <v>60.350711771240142</v>
+      </c>
+      <c r="AO97" s="8">
+        <f t="shared" si="33"/>
+        <v>2.645570369840669</v>
+      </c>
+      <c r="AP97" s="8">
+        <f t="shared" si="34"/>
+        <v>88.690945501772845</v>
+      </c>
+      <c r="AQ97" s="8">
+        <f t="shared" si="35"/>
+        <v>3.0006316757779881</v>
+      </c>
+      <c r="AR97" s="8">
+        <f t="shared" si="36"/>
+        <v>53.897069058930498</v>
+      </c>
+      <c r="AS97" s="8">
+        <f t="shared" si="37"/>
+        <v>1572.6946555296963</v>
+      </c>
+      <c r="AV97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW97" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX97" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY97" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ97" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA97" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB97" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC97" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD97" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE97" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF97" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG97" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH97" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="0"/>
+        <v>51.148825734039711</v>
+      </c>
+      <c r="D98" s="3">
         <f t="shared" si="1"/>
-        <v>2.6715628823034531E-2</v>
-      </c>
-      <c r="S97" s="7">
+        <v>78.857601671096504</v>
+      </c>
+      <c r="E98" s="3">
         <f t="shared" si="2"/>
-        <v>4.8330756339743375E-2</v>
-      </c>
-      <c r="T97" s="7">
+        <v>10.892111380268659</v>
+      </c>
+      <c r="F98" s="3">
         <f t="shared" si="3"/>
-        <v>4.9800276352001065</v>
-      </c>
-      <c r="U97" s="7">
+        <v>91.203057014370643</v>
+      </c>
+      <c r="G98" s="3">
         <f t="shared" si="4"/>
-        <v>23.5151293681024</v>
-      </c>
-      <c r="V97" s="7">
+        <v>2.8666830030259973</v>
+      </c>
+      <c r="H98" s="3">
         <f t="shared" si="5"/>
-        <v>23.435457004230109</v>
-      </c>
-      <c r="W97" s="7">
+        <v>54.775240579356101</v>
+      </c>
+      <c r="I98" s="3">
         <f t="shared" si="6"/>
-        <v>9.6959302086402825</v>
-      </c>
-      <c r="X97" s="7">
+        <v>85.834766326482892</v>
+      </c>
+      <c r="J98" s="3">
         <f t="shared" si="7"/>
-        <v>5.4932099801136376</v>
-      </c>
-      <c r="Y97" s="7">
+        <v>54.197251069524384</v>
+      </c>
+      <c r="K98" s="3">
         <f t="shared" si="8"/>
-        <v>1.1501239867598338</v>
-      </c>
-      <c r="Z97" s="7">
+        <v>95.110906210378644</v>
+      </c>
+      <c r="L98" s="3">
         <f t="shared" si="9"/>
-        <v>6.6592396526094797</v>
-      </c>
-      <c r="AA97" s="7">
+        <v>2.6965971078507209</v>
+      </c>
+      <c r="M98" s="3">
         <f t="shared" si="10"/>
-        <v>1.2248738048831782</v>
-      </c>
-      <c r="AB97" s="7">
+        <v>2.859981698566846</v>
+      </c>
+      <c r="N98" s="3">
         <f t="shared" si="11"/>
-        <v>5.191197793329132</v>
-      </c>
-      <c r="AC97" s="7">
-        <f t="shared" si="12"/>
-        <v>28.041885239135549</v>
-      </c>
-    </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="3">
-        <f>IF(C23&lt;100,C23,R23)</f>
-        <v>51.148825734039711</v>
-      </c>
-      <c r="D98" s="3">
-        <f>IF(D23&lt;100,D23,S23)</f>
-        <v>78.857601671096504</v>
-      </c>
-      <c r="E98" s="3">
-        <f>IF(E23&lt;100,E23,T23)</f>
-        <v>10.892111380268659</v>
-      </c>
-      <c r="F98" s="3">
-        <f>IF(F23&lt;100,F23,U23)</f>
-        <v>91.203057014370643</v>
-      </c>
-      <c r="G98" s="3">
-        <f>IF(G23&lt;100,G23,V23)</f>
-        <v>2.8666830030259973</v>
-      </c>
-      <c r="H98" s="3">
-        <f>IF(H23&lt;100,H23,W23)</f>
-        <v>54.775240579356101</v>
-      </c>
-      <c r="I98" s="3">
-        <f>IF(I23&lt;100,I23,X23)</f>
-        <v>85.834766326482892</v>
-      </c>
-      <c r="J98" s="3">
-        <f>IF(J23&lt;100,J23,Y23)</f>
-        <v>54.197251069524384</v>
-      </c>
-      <c r="K98" s="3">
-        <f>IF(K23&lt;100,K23,Z23)</f>
-        <v>95.110906210378644</v>
-      </c>
-      <c r="L98" s="3">
-        <f>IF(L23&lt;100,L23,AA23)</f>
-        <v>2.6965971078507209</v>
-      </c>
-      <c r="M98" s="3">
-        <f>IF(M23&lt;100,M23,AB23)</f>
-        <v>2.859981698566846</v>
-      </c>
-      <c r="N98" s="3">
-        <f>IF(N23&lt;100,N23,AC23)</f>
         <v>102.53112162443388</v>
       </c>
       <c r="Q98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R98" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>7.2648722613685823</v>
       </c>
       <c r="S98" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>11.089840466190315</v>
       </c>
       <c r="T98" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>1.5756972444732593</v>
       </c>
       <c r="U98" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>25.409559078466703</v>
       </c>
       <c r="V98" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.24019111025330045</v>
       </c>
       <c r="W98" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.5092661194543902</v>
       </c>
       <c r="X98" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>16.535730940141168</v>
       </c>
       <c r="Y98" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>5.6527211891367717</v>
       </c>
       <c r="Z98" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>21.931292121788271</v>
       </c>
       <c r="AA98" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>2.0637803283885328E-2</v>
       </c>
       <c r="AB98" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.1845567444787673</v>
       </c>
       <c r="AC98" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>21.539200413959662</v>
       </c>
-    </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH98" s="8">
+        <f t="shared" si="26"/>
+        <v>105.55673794800532</v>
+      </c>
+      <c r="AI98" s="8">
+        <f t="shared" si="27"/>
+        <v>245.96912313110445</v>
+      </c>
+      <c r="AJ98" s="8">
+        <f t="shared" si="28"/>
+        <v>4.9656436124812444</v>
+      </c>
+      <c r="AK98" s="8">
+        <f t="shared" si="29"/>
+        <v>1291.2913851241792</v>
+      </c>
+      <c r="AL98" s="8">
+        <f t="shared" si="30"/>
+        <v>0.11538353888942626</v>
+      </c>
+      <c r="AM98" s="8">
+        <f t="shared" si="31"/>
+        <v>24.629897394300947</v>
+      </c>
+      <c r="AN98" s="8">
+        <f t="shared" si="32"/>
+        <v>546.86079544948382</v>
+      </c>
+      <c r="AO98" s="8">
+        <f t="shared" si="33"/>
+        <v>63.906513684231676</v>
+      </c>
+      <c r="AP98" s="8">
+        <f t="shared" si="34"/>
+        <v>961.96314826242451</v>
+      </c>
+      <c r="AQ98" s="8">
+        <f t="shared" si="35"/>
+        <v>8.518378487686961E-4</v>
+      </c>
+      <c r="AR98" s="8">
+        <f t="shared" si="36"/>
+        <v>6.8122383865202002E-2</v>
+      </c>
+      <c r="AS98" s="8">
+        <f t="shared" si="37"/>
+        <v>927.87430894544013</v>
+      </c>
+      <c r="AV98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW98" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX98" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY98" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ98" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA98" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB98" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC98" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD98" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE98" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF98" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG98" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH98" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="3">
-        <f>IF(C24&lt;100,C24,R24)</f>
+        <f t="shared" ref="C99:J99" si="38">IF(C24&lt;100,C24,R24)</f>
         <v>81.791557629506812</v>
       </c>
       <c r="D99" s="3">
-        <f>IF(D24&lt;100,D24,S24)</f>
+        <f t="shared" si="38"/>
         <v>3.1605705480097015</v>
       </c>
       <c r="E99" s="3">
-        <f>IF(E24&lt;100,E24,T24)</f>
+        <f t="shared" si="38"/>
         <v>8.5157515695992085</v>
       </c>
       <c r="F99" s="3">
-        <f>IF(F24&lt;100,F24,U24)</f>
+        <f t="shared" si="38"/>
         <v>99.1192977943724</v>
       </c>
       <c r="G99" s="3">
-        <f>IF(G24&lt;100,G24,V24)</f>
+        <f t="shared" si="38"/>
         <v>76.345109912235486</v>
       </c>
       <c r="H99" s="3">
-        <f>IF(H24&lt;100,H24,W24)</f>
+        <f t="shared" si="38"/>
         <v>3.2960554885315028</v>
       </c>
       <c r="I99" s="3">
-        <f>IF(I24&lt;100,I24,X24)</f>
+        <f t="shared" si="38"/>
         <v>22.464083808935925</v>
       </c>
       <c r="J99" s="3">
-        <f>IF(J24&lt;100,J24,Y24)</f>
+        <f t="shared" si="38"/>
         <v>106.55309696980184</v>
       </c>
       <c r="K99" s="3"/>
@@ -7615,64 +9409,134 @@
         <v>1</v>
       </c>
       <c r="R99" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>13.434683272232524</v>
       </c>
       <c r="S99" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>0.70643112279634301</v>
       </c>
       <c r="T99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>2.6913330386923571</v>
       </c>
       <c r="U99" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>10.164797554850109</v>
       </c>
       <c r="V99" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>14.862473413721318</v>
       </c>
       <c r="W99" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.51003261326606253</v>
       </c>
       <c r="X99" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>16.920432434805431</v>
       </c>
       <c r="Y99" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>28.151294303471889</v>
       </c>
-    </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH99" s="8">
+        <f t="shared" si="26"/>
+        <v>360.98142925040884</v>
+      </c>
+      <c r="AI99" s="8">
+        <f t="shared" si="27"/>
+        <v>0.99808986251060372</v>
+      </c>
+      <c r="AJ99" s="8">
+        <f t="shared" si="28"/>
+        <v>14.486547050314073</v>
+      </c>
+      <c r="AK99" s="8">
+        <f t="shared" si="29"/>
+        <v>206.64621866217351</v>
+      </c>
+      <c r="AL99" s="8">
+        <f t="shared" si="30"/>
+        <v>441.78623194714601</v>
+      </c>
+      <c r="AM99" s="8">
+        <f t="shared" si="31"/>
+        <v>0.52026653319001781</v>
+      </c>
+      <c r="AN99" s="8">
+        <f t="shared" si="32"/>
+        <v>572.60206756163132</v>
+      </c>
+      <c r="AO99" s="8">
+        <f t="shared" si="33"/>
+        <v>1584.9907419213778</v>
+      </c>
+      <c r="AP99" s="8"/>
+      <c r="AQ99" s="8"/>
+      <c r="AR99" s="8"/>
+      <c r="AS99" s="8"/>
+      <c r="AV99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW99" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX99" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY99" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ99" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA99" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB99" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC99" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD99" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE99" s="8"/>
+      <c r="BF99" s="8"/>
+      <c r="BG99" s="8"/>
+      <c r="BH99" s="8"/>
+    </row>
+    <row r="100" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="3">
-        <f>IF(C25&lt;100,C25,R25)</f>
+        <f t="shared" ref="C100:H100" si="39">IF(C25&lt;100,C25,R25)</f>
         <v>92.08061315639209</v>
       </c>
       <c r="D100" s="3">
-        <f>IF(D25&lt;100,D25,S25)</f>
+        <f t="shared" si="39"/>
         <v>274.20628374615268</v>
       </c>
       <c r="E100" s="3">
-        <f>IF(E25&lt;100,E25,T25)</f>
+        <f t="shared" si="39"/>
         <v>8.2799721585508426</v>
       </c>
       <c r="F100" s="3">
-        <f>IF(F25&lt;100,F25,U25)</f>
+        <f t="shared" si="39"/>
         <v>7.3369018345326724</v>
       </c>
       <c r="G100" s="3">
-        <f>IF(G25&lt;100,G25,V25)</f>
+        <f t="shared" si="39"/>
         <v>9.5017242406145019</v>
       </c>
       <c r="H100" s="3">
-        <f>IF(H25&lt;100,H25,W25)</f>
+        <f t="shared" si="39"/>
         <v>3.2516467571446035</v>
       </c>
       <c r="I100" s="3"/>
@@ -7685,36 +9549,108 @@
         <v>0</v>
       </c>
       <c r="R100" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>17.318442592660272</v>
       </c>
       <c r="S100" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>7.6960782412060356</v>
       </c>
       <c r="T100" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>1.4476477622169737</v>
       </c>
       <c r="U100" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>2.6355020193645302</v>
       </c>
       <c r="V100" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.4247098914691101</v>
       </c>
       <c r="W100" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.46470639089975047</v>
       </c>
-    </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="8">
+        <f t="shared" si="26"/>
+        <v>599.85690767053893</v>
+      </c>
+      <c r="AI100" s="8">
+        <f t="shared" si="27"/>
+        <v>118.45924058952997</v>
+      </c>
+      <c r="AJ100" s="8">
+        <f t="shared" si="28"/>
+        <v>4.1913680869036227</v>
+      </c>
+      <c r="AK100" s="8">
+        <f t="shared" si="29"/>
+        <v>13.891741788149034</v>
+      </c>
+      <c r="AL100" s="8">
+        <f t="shared" si="30"/>
+        <v>4.0595965496998465</v>
+      </c>
+      <c r="AM100" s="8">
+        <f t="shared" si="31"/>
+        <v>0.43190405948614335</v>
+      </c>
+      <c r="AN100" s="8"/>
+      <c r="AO100" s="8"/>
+      <c r="AP100" s="8"/>
+      <c r="AQ100" s="8"/>
+      <c r="AR100" s="8"/>
+      <c r="AS100" s="8"/>
+      <c r="AV100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW100" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX100" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY100" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ100" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA100" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB100" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC100" s="8"/>
+      <c r="BD100" s="8"/>
+      <c r="BE100" s="8"/>
+      <c r="BF100" s="8"/>
+      <c r="BG100" s="8"/>
+      <c r="BH100" s="8"/>
+    </row>
+    <row r="103" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="Q103" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="2:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C104" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Q104" s="1">
+        <f>(SUM(AH80:AS98,AH99:AO99,AH100:AM100)/SUM(AW80:BH98,AW99:BD99,AW100:BB100))^0.5</f>
+        <v>10.348657964573258</v>
+      </c>
+      <c r="T104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C105" s="1">
         <v>1</v>
       </c>
@@ -7752,7 +9688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
@@ -7793,7 +9729,7 @@
         <v>7.6440000000000008E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
         <v>3</v>
       </c>
@@ -7834,7 +9770,7 @@
         <v>9.0359999999999996E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
         <v>2</v>
       </c>
@@ -7875,7 +9811,7 @@
         <v>0.11239999999999994</v>
       </c>
     </row>
-    <row r="109" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
@@ -7916,7 +9852,7 @@
         <v>0.11123999999999995</v>
       </c>
     </row>
-    <row r="110" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
         <v>0</v>
       </c>
@@ -7957,7 +9893,7 @@
         <v>9.9640000000000006E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
@@ -7998,7 +9934,7 @@
         <v>8.9200000000000002E-2</v>
       </c>
     </row>
-    <row r="112" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
         <v>6</v>
       </c>
@@ -8683,51 +10619,51 @@
         <v>4</v>
       </c>
       <c r="C132" s="6">
-        <f t="shared" ref="C132:N132" si="13">C80/C106*$C$126/$C$100</f>
+        <f t="shared" ref="C132:N132" si="40">C80/C106*$C$126/$C$100</f>
         <v>0.52258781012447275</v>
       </c>
       <c r="D132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>0.29543419650271746</v>
       </c>
       <c r="E132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>1.0955382134841021</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>0.57049241309642396</v>
       </c>
       <c r="G132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>0.19105493903274126</v>
       </c>
       <c r="H132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>0.38262213473433487</v>
       </c>
       <c r="I132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>0.1956107154240925</v>
       </c>
       <c r="J132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>8.6391927465422222E-2</v>
       </c>
       <c r="K132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>0.42609988956415074</v>
       </c>
       <c r="L132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>6.4980324273062315E-2</v>
       </c>
       <c r="M132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>0.15311282511119625</v>
       </c>
       <c r="N132" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="40"/>
         <v>1.3543034851370206</v>
       </c>
     </row>
@@ -8736,51 +10672,51 @@
         <v>3</v>
       </c>
       <c r="C133" s="6">
-        <f t="shared" ref="C133:N133" si="14">C81/C107*$C$126/$C$100</f>
+        <f t="shared" ref="C133:N133" si="41">C81/C107*$C$126/$C$100</f>
         <v>4.2034443743284793E-2</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>4.6122055344123614E-2</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>5.3874686302503076E-2</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>0.24918258089964065</v>
       </c>
       <c r="G133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>1.0741634076357434</v>
       </c>
       <c r="H133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>5.680174629837733E-2</v>
       </c>
       <c r="I133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>4.8711548290912024E-2</v>
       </c>
       <c r="J133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>4.9067024885686213E-2</v>
       </c>
       <c r="K133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>1.0245647095308945</v>
       </c>
       <c r="L133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>3.6577828656364044</v>
       </c>
       <c r="M133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>0.60779939846209829</v>
       </c>
       <c r="N133" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>0.62170935468189092</v>
       </c>
     </row>
@@ -8789,51 +10725,51 @@
         <v>2</v>
       </c>
       <c r="C134" s="6">
-        <f t="shared" ref="C134:N134" si="15">C82/C108*$C$126/$C$100</f>
+        <f t="shared" ref="C134:N134" si="42">C82/C108*$C$126/$C$100</f>
         <v>0.83982052800652973</v>
       </c>
       <c r="D134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>0.78468536335350447</v>
       </c>
       <c r="E134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>0.17255618900685843</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>0.89781422093753938</v>
       </c>
       <c r="G134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>0.52697880877857162</v>
       </c>
       <c r="H134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>0.10779065632273307</v>
       </c>
       <c r="I134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>1.3563848658094828</v>
       </c>
       <c r="J134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>1.4812979683071281</v>
       </c>
       <c r="K134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>1.1941259017531431</v>
       </c>
       <c r="L134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>1.257252659071272</v>
       </c>
       <c r="M134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>1.2816041147852315</v>
       </c>
       <c r="N134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>1.1864259127202301</v>
       </c>
     </row>
@@ -8842,51 +10778,51 @@
         <v>1</v>
       </c>
       <c r="C135" s="6">
-        <f t="shared" ref="C135:N135" si="16">C83/C109*$C$126/$C$100</f>
+        <f t="shared" ref="C135:N135" si="43">C83/C109*$C$126/$C$100</f>
         <v>0.57329295522652457</v>
       </c>
       <c r="D135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>0.29110995597922024</v>
       </c>
       <c r="E135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>0.33888654593948309</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>4.2480504962212784E-2</v>
       </c>
       <c r="G135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>0.94620677687988286</v>
       </c>
       <c r="H135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>1.0325661609020709</v>
       </c>
       <c r="I135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>4.3902351641522126E-2</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>5.0694268550158683E-2</v>
       </c>
       <c r="K135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>0.48013903733085733</v>
       </c>
       <c r="L135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>0.95144413230980029</v>
       </c>
       <c r="M135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>4.806821398365612E-2</v>
       </c>
       <c r="N135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>4.3706178549195479E-2</v>
       </c>
     </row>
@@ -8895,51 +10831,51 @@
         <v>0</v>
       </c>
       <c r="C136" s="6">
-        <f t="shared" ref="C136:N136" si="17">C84/C110*$C$126/$C$100</f>
+        <f t="shared" ref="C136:N136" si="44">C84/C110*$C$126/$C$100</f>
         <v>0.9728565403741245</v>
       </c>
       <c r="D136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>0.78333495262411912</v>
       </c>
       <c r="E136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>1.0685956818407498</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>0.19870776185479855</v>
       </c>
       <c r="G136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>1.191779659803972</v>
       </c>
       <c r="H136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>0.81992512875589263</v>
       </c>
       <c r="I136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>0.23594785825432441</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>0.84093681249731322</v>
       </c>
       <c r="K136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>0.63037279992577344</v>
       </c>
       <c r="L136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>0.85651785927773405</v>
       </c>
       <c r="M136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>0.45067807547109445</v>
       </c>
       <c r="N136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>0.15468069391745784</v>
       </c>
     </row>
@@ -8948,51 +10884,51 @@
         <v>7</v>
       </c>
       <c r="C137" s="6">
-        <f t="shared" ref="C137:N137" si="18">C85/C111*$C$126/$C$100</f>
+        <f t="shared" ref="C137:N137" si="45">C85/C111*$C$126/$C$100</f>
         <v>1.5007504196423058</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>0.74536857637706577</v>
       </c>
       <c r="E137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>1.2120101542247588</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>1.2088471513867478</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>1.2107615812948553</v>
       </c>
       <c r="H137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>7.2214799868746293E-2</v>
       </c>
       <c r="I137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>0.75870411572266006</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>1.3819268630363744</v>
       </c>
       <c r="K137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>6.9678201591121133E-2</v>
       </c>
       <c r="L137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>0.15818933717059958</v>
       </c>
       <c r="M137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>5.7880813319461176E-2</v>
       </c>
       <c r="N137" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>0.13349148531650537</v>
       </c>
     </row>
@@ -9001,51 +10937,51 @@
         <v>6</v>
       </c>
       <c r="C138" s="6">
-        <f t="shared" ref="C138:N138" si="19">C86/C112*$C$126/$C$100</f>
+        <f t="shared" ref="C138:N138" si="46">C86/C112*$C$126/$C$100</f>
         <v>4.6458563661461727E-2</v>
       </c>
       <c r="D138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>0.3173002715067626</v>
       </c>
       <c r="E138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>0.94997735806648287</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>0.53368372073587456</v>
       </c>
       <c r="G138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>5.2413992751846945E-2</v>
       </c>
       <c r="H138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>1.4647932283837084</v>
       </c>
       <c r="I138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>1.3052673227011813</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>5.5439226502000553E-2</v>
       </c>
       <c r="K138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>0.97289209457832226</v>
       </c>
       <c r="L138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>1.2643139343293504</v>
       </c>
       <c r="M138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>0.93924146324945301</v>
       </c>
       <c r="N138" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>0.80396061067826186</v>
       </c>
     </row>
@@ -9054,51 +10990,51 @@
         <v>5</v>
       </c>
       <c r="C139" s="6">
-        <f t="shared" ref="C139:N139" si="20">C87/C113*$C$126/$C$100</f>
+        <f t="shared" ref="C139:N139" si="47">C87/C113*$C$126/$C$100</f>
         <v>1.0963116056899183</v>
       </c>
       <c r="D139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>8.6277179580520197E-2</v>
       </c>
       <c r="E139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>0.98956182954730021</v>
       </c>
       <c r="F139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>0.34263405557021009</v>
       </c>
       <c r="G139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>0.97853847314663478</v>
       </c>
       <c r="H139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>1.2746173969973624</v>
       </c>
       <c r="I139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>1.4174445795197987</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>0.29183884322993109</v>
       </c>
       <c r="K139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>1.5634663238398605</v>
       </c>
       <c r="L139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>2.0970700273757497</v>
       </c>
       <c r="M139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>1.0130886348466657</v>
       </c>
       <c r="N139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v>7.5047705067680506E-2</v>
       </c>
     </row>
@@ -9107,51 +11043,51 @@
         <v>4</v>
       </c>
       <c r="C140" s="6">
-        <f t="shared" ref="C140:N140" si="21">C88/C114*$C$126/$C$100</f>
+        <f t="shared" ref="C140:N140" si="48">C88/C114*$C$126/$C$100</f>
         <v>1.1946228265528731</v>
       </c>
       <c r="D140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>1.1913100868543067</v>
       </c>
       <c r="E140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>1.559147311901075</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>5.2963025024504513E-2</v>
       </c>
       <c r="G140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>9.2627174604084289E-2</v>
       </c>
       <c r="H140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>0.12686909350994352</v>
       </c>
       <c r="I140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>1.0900911614678308</v>
       </c>
       <c r="J140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>2.1867130271440716</v>
       </c>
       <c r="K140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>0.46575795517218371</v>
       </c>
       <c r="L140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>4.2701116165263335E-2</v>
       </c>
       <c r="M140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>1.0470762017016995</v>
       </c>
       <c r="N140" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>4.6863317188576337E-2</v>
       </c>
     </row>
@@ -9160,51 +11096,51 @@
         <v>3</v>
       </c>
       <c r="C141" s="6">
-        <f t="shared" ref="C141:N141" si="22">C89/C115*$C$126/$C$100</f>
+        <f t="shared" ref="C141:N141" si="49">C89/C115*$C$126/$C$100</f>
         <v>1.1031194881607893</v>
       </c>
       <c r="D141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>1.1391055108714332</v>
       </c>
       <c r="E141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>1.2416778484545501</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>2.2663801406288755</v>
       </c>
       <c r="G141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>4.2486518648444764E-2</v>
       </c>
       <c r="H141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>2.0626389589275598</v>
       </c>
       <c r="I141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>1.8765888508222688</v>
       </c>
       <c r="J141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>5.148950523901534E-2</v>
       </c>
       <c r="K141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>1.4011132003585742</v>
       </c>
       <c r="L141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>1.5282411661832838</v>
       </c>
       <c r="M141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>1.0194361060102644</v>
       </c>
       <c r="N141" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>4.263218203434712E-2</v>
       </c>
     </row>
@@ -9213,51 +11149,51 @@
         <v>2</v>
       </c>
       <c r="C142" s="6">
-        <f t="shared" ref="C142:N142" si="23">C90/C116*$C$126/$C$100</f>
+        <f t="shared" ref="C142:N142" si="50">C90/C116*$C$126/$C$100</f>
         <v>4.2516159630501562</v>
       </c>
       <c r="D142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>5.3468595031879125E-2</v>
       </c>
       <c r="E142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.35532770856680501</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.83797340329920444</v>
       </c>
       <c r="G142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>5.1050163318728456E-2</v>
       </c>
       <c r="H142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>7.1202907654647207E-2</v>
       </c>
       <c r="I142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>6.067856954020226E-2</v>
       </c>
       <c r="J142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.48500984914470696</v>
       </c>
       <c r="K142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>4.6694227872471565E-2</v>
       </c>
       <c r="L142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>4.4446292995220328E-2</v>
       </c>
       <c r="M142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.21757366278362805</v>
       </c>
       <c r="N142" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>1.2050682704643869</v>
       </c>
     </row>
@@ -9266,51 +11202,51 @@
         <v>1</v>
       </c>
       <c r="C143" s="6">
-        <f t="shared" ref="C143:N143" si="24">C91/C117*$C$126/$C$100</f>
+        <f t="shared" ref="C143:N143" si="51">C91/C117*$C$126/$C$100</f>
         <v>5.6437200319675869E-2</v>
       </c>
       <c r="D143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.1174043742870302</v>
       </c>
       <c r="E143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>8.5736602478195895E-2</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>4.8077782601742239E-2</v>
       </c>
       <c r="G143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>4.5462874435798224E-2</v>
       </c>
       <c r="H143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.48389683941264472</v>
       </c>
       <c r="I143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>4.5122059749452816</v>
       </c>
       <c r="J143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>3.652145892632908</v>
       </c>
       <c r="K143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>1.1589844465397232</v>
       </c>
       <c r="L143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>4.7950306908453477E-2</v>
       </c>
       <c r="M143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.85841684058549428</v>
       </c>
       <c r="N143" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>3.971812991174848E-2</v>
       </c>
     </row>
@@ -9319,51 +11255,51 @@
         <v>0</v>
       </c>
       <c r="C144" s="6">
-        <f t="shared" ref="C144:N144" si="25">C92/C118*$C$126/$C$100</f>
+        <f t="shared" ref="C144:N144" si="52">C92/C118*$C$126/$C$100</f>
         <v>4.2442252595321354E-2</v>
       </c>
       <c r="D144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>4.789848856167328E-2</v>
       </c>
       <c r="E144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>4.5616284530657636E-2</v>
       </c>
       <c r="F144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>4.4834096121606389E-2</v>
       </c>
       <c r="G144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>4.4010035287370845E-2</v>
       </c>
       <c r="H144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>2.3111090352407637</v>
       </c>
       <c r="I144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>0.15038755106201435</v>
       </c>
       <c r="J144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>0.93692193383873767</v>
       </c>
       <c r="K144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>4.598056347625696E-2</v>
       </c>
       <c r="L144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>0.96867934792559918</v>
       </c>
       <c r="M144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>8.4873436452279308E-2</v>
       </c>
       <c r="N144" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>0.26740905413151278</v>
       </c>
     </row>
@@ -9372,51 +11308,51 @@
         <v>7</v>
       </c>
       <c r="C145" s="6">
-        <f t="shared" ref="C145:N145" si="26">C93/C119*$C$126/$C$100</f>
+        <f t="shared" ref="C145:N145" si="53">C93/C119*$C$126/$C$100</f>
         <v>4.5660489327522202E-2</v>
       </c>
       <c r="D145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>5.400879830481483E-2</v>
       </c>
       <c r="E145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>0.33193256174383373</v>
       </c>
       <c r="F145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>8.464711919858009E-2</v>
       </c>
       <c r="G145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>0.45372365080548227</v>
       </c>
       <c r="H145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>9.1011303253372616E-2</v>
       </c>
       <c r="I145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>4.9216921703739543E-2</v>
       </c>
       <c r="J145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>1.8261760328840857</v>
       </c>
       <c r="K145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>0.99946632241952471</v>
       </c>
       <c r="L145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>4.741418900048313E-2</v>
       </c>
       <c r="M145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>6.0195943718721195E-2</v>
       </c>
       <c r="N145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>2.4865963377513225</v>
       </c>
     </row>
@@ -9425,51 +11361,51 @@
         <v>6</v>
       </c>
       <c r="C146" s="6">
-        <f t="shared" ref="C146:N146" si="27">C94/C120*$C$126/$C$100</f>
+        <f t="shared" ref="C146:N146" si="54">C94/C120*$C$126/$C$100</f>
         <v>4.9183439971372006E-2</v>
       </c>
       <c r="D146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>4.2490534904519039E-2</v>
       </c>
       <c r="E146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>4.1287482973259119E-2</v>
       </c>
       <c r="F146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>0.42025839490335221</v>
       </c>
       <c r="G146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>1.1474627832826911</v>
       </c>
       <c r="H146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>1.2129712743784211</v>
       </c>
       <c r="I146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>0.78260313319251884</v>
       </c>
       <c r="J146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>5.4128694073653692E-2</v>
       </c>
       <c r="K146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>5.1113678132361312E-2</v>
       </c>
       <c r="L146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>0.65253086089771439</v>
       </c>
       <c r="M146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>5.8739436463869248E-2</v>
       </c>
       <c r="N146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>5.616570543288045E-2</v>
       </c>
     </row>
@@ -9478,51 +11414,51 @@
         <v>5</v>
       </c>
       <c r="C147" s="6">
-        <f t="shared" ref="C147:N147" si="28">C95/C121*$C$126/$C$100</f>
+        <f t="shared" ref="C147:N147" si="55">C95/C121*$C$126/$C$100</f>
         <v>4.6450239085939912E-2</v>
       </c>
       <c r="D147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>4.4891794843931992E-2</v>
       </c>
       <c r="E147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>4.308497472864109E-2</v>
       </c>
       <c r="F147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>1.1876222528500424</v>
       </c>
       <c r="G147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>1.218963623739945</v>
       </c>
       <c r="H147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>4.1420724096981318E-2</v>
       </c>
       <c r="I147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>4.3057924920204778E-2</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>4.5254450723633495E-2</v>
       </c>
       <c r="K147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>0.42560390469917747</v>
       </c>
       <c r="L147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>4.7121762296390736E-2</v>
       </c>
       <c r="M147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>2.3957565911047833</v>
       </c>
       <c r="N147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="55"/>
         <v>1.2556461568945168</v>
       </c>
     </row>
@@ -9531,51 +11467,51 @@
         <v>4</v>
       </c>
       <c r="C148" s="6">
-        <f t="shared" ref="C148:N148" si="29">C96/C122*$C$126/$C$100</f>
+        <f t="shared" ref="C148:N148" si="56">C96/C122*$C$126/$C$100</f>
         <v>0.1941478827917873</v>
       </c>
       <c r="D148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>5.422419378669547E-2</v>
       </c>
       <c r="E148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.11828048115586216</v>
       </c>
       <c r="F148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>1.5143387504215504</v>
       </c>
       <c r="G148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>6.4820098289901373E-2</v>
       </c>
       <c r="H148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>1.1007695078730209</v>
       </c>
       <c r="I148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.68825639495411273</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>7.625230896644998E-2</v>
       </c>
       <c r="K148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.25492074507734314</v>
       </c>
       <c r="L148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>5.3936624190077484E-2</v>
       </c>
       <c r="M148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.92069286638734649</v>
       </c>
       <c r="N148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>1.9679932363430361</v>
       </c>
     </row>
@@ -9584,51 +11520,51 @@
         <v>3</v>
       </c>
       <c r="C149" s="6">
-        <f t="shared" ref="C149:N149" si="30">C97/C123*$C$126/$C$100</f>
+        <f t="shared" ref="C149:N149" si="57">C97/C123*$C$126/$C$100</f>
         <v>5.2495075013816679E-2</v>
       </c>
       <c r="D149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>5.1696849777972467E-2</v>
       </c>
       <c r="E149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>0.10428789338025503</v>
       </c>
       <c r="F149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>1.4313163925466781</v>
       </c>
       <c r="G149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>1.4376622135214474</v>
       </c>
       <c r="H149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>1.4394743378151198</v>
       </c>
       <c r="I149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>1.4519775831343149</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>0.15296775806073951</v>
       </c>
       <c r="K149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>1.4097828135888615</v>
       </c>
       <c r="L149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>0.43733308902892554</v>
       </c>
       <c r="M149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>1.4832913114835677</v>
       </c>
       <c r="N149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>2.0056063710787857</v>
       </c>
     </row>
@@ -9637,51 +11573,51 @@
         <v>2</v>
       </c>
       <c r="C150" s="6">
-        <f t="shared" ref="C150:N150" si="31">C98/C124*$C$126/$C$100</f>
+        <f t="shared" ref="C150:N150" si="58">C98/C124*$C$126/$C$100</f>
         <v>0.86888118882201315</v>
       </c>
       <c r="D150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>1.4196774109175829</v>
       </c>
       <c r="E150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>0.19906697827334388</v>
       </c>
       <c r="F150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>1.5277460650428463</v>
       </c>
       <c r="G150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>6.176529131637188E-2</v>
       </c>
       <c r="H150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>0.95749529225511476</v>
       </c>
       <c r="I150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>1.3802293103189536</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>0.8714957547661325</v>
       </c>
       <c r="K150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>1.4159572755951806</v>
       </c>
       <c r="L150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>5.4220570577694534E-2</v>
       </c>
       <c r="M150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>6.2743396991058811E-2</v>
       </c>
       <c r="N150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="58"/>
         <v>1.4375727049831977</v>
       </c>
     </row>
@@ -9690,35 +11626,35 @@
         <v>1</v>
       </c>
       <c r="C151" s="6">
-        <f t="shared" ref="C151:J151" si="32">C99/C125*$C$126/$C$100</f>
+        <f t="shared" ref="C151:J151" si="59">C99/C125*$C$126/$C$100</f>
         <v>1.2485337780454</v>
       </c>
       <c r="D151" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="59"/>
         <v>5.8653469552778392E-2</v>
       </c>
       <c r="E151" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="59"/>
         <v>0.14672937649820039</v>
       </c>
       <c r="F151" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="59"/>
         <v>1.8979344993076648</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="59"/>
         <v>1.4854724760556097</v>
       </c>
       <c r="H151" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="59"/>
         <v>6.6273900807659367E-2</v>
       </c>
       <c r="I151" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="59"/>
         <v>0.43709123264531125</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="59"/>
         <v>1.810050968700442</v>
       </c>
       <c r="K151" s="6"/>
@@ -9731,27 +11667,27 @@
         <v>0</v>
       </c>
       <c r="C152" s="6">
-        <f t="shared" ref="C152:H152" si="33">C100/C126*$C$126/$C$100</f>
+        <f t="shared" ref="C152:H152" si="60">C100/C126*$C$126/$C$100</f>
         <v>1</v>
       </c>
       <c r="D152" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="60"/>
         <v>4.4092570656105536</v>
       </c>
       <c r="E152" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="60"/>
         <v>0.15854475528692483</v>
       </c>
       <c r="F152" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="60"/>
         <v>0.14510081328988428</v>
       </c>
       <c r="G152" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="60"/>
         <v>0.20112511964506666</v>
       </c>
       <c r="H152" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="60"/>
         <v>4.6677661309177935E-2</v>
       </c>
       <c r="I152" s="6"/>

--- a/Dehalogenation_colorimetric_assays/Fluoride_concentrations+normalized_activities.xlsx
+++ b/Dehalogenation_colorimetric_assays/Fluoride_concentrations+normalized_activities.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Fluoride concentration" sheetId="2" r:id="rId1"/>
-    <sheet name="Data normalized Defluorination" sheetId="3" r:id="rId2"/>
+    <sheet name="Protein conc normalized defluo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Data Fluoride concentration'!$C$106:$C$126</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="49">
   <si>
     <t>E</t>
   </si>
@@ -202,19 +202,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Pooled Standard deviation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>in fraction of normalized WT activity</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Fluoride concentration / protein concentration in supernatant [</t>
     </r>
     <r>
@@ -253,6 +240,25 @@
   <si>
     <t>Defluorination activity normalized to WT activity</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pooled Standard deviation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[µM*mg^(-1)*ml]</t>
+    </r>
+  </si>
+  <si>
+    <t>SD pooled​=((Sum of Weighted Variances)/(​Sum of Degrees of Freedom))^0.5</t>
+  </si>
+  <si>
+    <t>Mean SD [µM*mg^(-1)*ml]</t>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +267,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -274,6 +280,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -330,7 +337,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -339,11 +346,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,27 +361,7 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1392,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BH126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9834,12 +9823,12 @@
         <v>10.348657964573258</v>
       </c>
       <c r="U103" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="2:60" x14ac:dyDescent="0.25">
@@ -10892,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="12">
-        <f t="shared" ref="C125:N125" si="59">C99/$C$100</f>
+        <f t="shared" ref="C125:J125" si="59">C99/$C$100</f>
         <v>0.88826034955468769</v>
       </c>
       <c r="D125" s="12">
@@ -10933,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="12">
-        <f t="shared" ref="C126:N126" si="60">C100/$C$100</f>
+        <f t="shared" ref="C126:H126" si="60">C100/$C$100</f>
         <v>1</v>
       </c>
       <c r="D126" s="12">
@@ -11010,8 +10999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BA206"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="L203" sqref="L203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18795,7 +18784,7 @@
     </row>
     <row r="76" spans="3:40" x14ac:dyDescent="0.35">
       <c r="C76">
-        <f t="shared" ref="C76:AN76" si="19">IF(C24&lt;100,C24,C50)</f>
+        <f t="shared" ref="C76:AJ76" si="19">IF(C24&lt;100,C24,C50)</f>
         <v>94.737737055983501</v>
       </c>
       <c r="D76">
@@ -18893,7 +18882,7 @@
     </row>
     <row r="77" spans="3:40" x14ac:dyDescent="0.35">
       <c r="C77">
-        <f t="shared" ref="C77:AN77" si="20">IF(C25&lt;100,C25,C51)</f>
+        <f t="shared" ref="C77:AH77" si="20">IF(C25&lt;100,C25,C51)</f>
         <v>111.85850317409447</v>
       </c>
       <c r="D77">
@@ -21405,7 +21394,7 @@
     </row>
     <row r="109" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="2:40" x14ac:dyDescent="0.35">
@@ -24184,7 +24173,7 @@
     </row>
     <row r="130" spans="2:53" x14ac:dyDescent="0.35">
       <c r="C130">
-        <f t="shared" ref="C130:AN130" si="40">C76/C103</f>
+        <f t="shared" ref="C130:AJ130" si="40">C76/C103</f>
         <v>1035.1588402096099</v>
       </c>
       <c r="D130">
@@ -24282,7 +24271,7 @@
     </row>
     <row r="131" spans="2:53" x14ac:dyDescent="0.35">
       <c r="C131">
-        <f t="shared" ref="C131:AN131" si="41">C77/C104</f>
+        <f t="shared" ref="C131:AH131" si="41">C77/C104</f>
         <v>869.5468219379236</v>
       </c>
       <c r="D131">
@@ -24356,10 +24345,10 @@
     </row>
     <row r="134" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
+        <v>41</v>
+      </c>
+      <c r="P134" t="s">
         <v>42</v>
-      </c>
-      <c r="P134" t="s">
-        <v>43</v>
       </c>
       <c r="AC134" t="s">
         <v>38</v>
@@ -24518,51 +24507,51 @@
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="13">
         <f>AVERAGE(C111,P111,AC111)</f>
         <v>407.49035923456813</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="13">
         <f t="shared" ref="D136:N136" si="42">AVERAGE(D111,Q111,AD111)</f>
         <v>192.08164525935345</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="13">
         <f t="shared" si="42"/>
         <v>823.4473392308463</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="13">
         <f t="shared" si="42"/>
         <v>435.40834566165069</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="13">
         <f t="shared" si="42"/>
         <v>140.04936346917691</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="13">
         <f t="shared" si="42"/>
         <v>276.36871276417827</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="13">
         <f t="shared" si="42"/>
         <v>142.78801455938421</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="13">
         <f t="shared" si="42"/>
         <v>68.340988760392335</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="13">
         <f t="shared" si="42"/>
         <v>299.29965569391658</v>
       </c>
-      <c r="L136">
+      <c r="L136" s="13">
         <f t="shared" si="42"/>
         <v>52.506719995934013</v>
       </c>
-      <c r="M136">
+      <c r="M136" s="13">
         <f t="shared" si="42"/>
         <v>101.63477678958226</v>
       </c>
-      <c r="N136">
+      <c r="N136" s="13">
         <f t="shared" si="42"/>
         <v>855.82931442909319</v>
       </c>
@@ -24715,52 +24704,52 @@
       <c r="B137" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C137">
-        <f t="shared" ref="C137:C166" si="45">AVERAGE(C112,P112,AC112)</f>
+      <c r="C137" s="13">
+        <f t="shared" ref="C137:C156" si="45">AVERAGE(C112,P112,AC112)</f>
         <v>41.064222030792074</v>
       </c>
-      <c r="D137">
-        <f t="shared" ref="D137:D166" si="46">AVERAGE(D112,Q112,AD112)</f>
+      <c r="D137" s="13">
+        <f t="shared" ref="D137:D156" si="46">AVERAGE(D112,Q112,AD112)</f>
         <v>44.667521037275691</v>
       </c>
-      <c r="E137">
-        <f t="shared" ref="E137:E166" si="47">AVERAGE(E112,R112,AE112)</f>
+      <c r="E137" s="13">
+        <f t="shared" ref="E137:E156" si="47">AVERAGE(E112,R112,AE112)</f>
         <v>47.05273465324148</v>
       </c>
-      <c r="F137">
-        <f t="shared" ref="F137:F166" si="48">AVERAGE(F112,S112,AF112)</f>
+      <c r="F137" s="13">
+        <f t="shared" ref="F137:F156" si="48">AVERAGE(F112,S112,AF112)</f>
         <v>224.17290335071672</v>
       </c>
-      <c r="G137">
-        <f t="shared" ref="G137:G166" si="49">AVERAGE(G112,T112,AG112)</f>
+      <c r="G137" s="13">
+        <f t="shared" ref="G137:G156" si="49">AVERAGE(G112,T112,AG112)</f>
         <v>994.5980821974108</v>
       </c>
-      <c r="H137">
-        <f t="shared" ref="H137:H166" si="50">AVERAGE(H112,U112,AH112)</f>
+      <c r="H137" s="13">
+        <f t="shared" ref="H137:H156" si="50">AVERAGE(H112,U112,AH112)</f>
         <v>55.569231615508492</v>
       </c>
-      <c r="I137">
-        <f t="shared" ref="I137:I166" si="51">AVERAGE(I112,V112,AI112)</f>
+      <c r="I137" s="13">
+        <f t="shared" ref="I137:I155" si="51">AVERAGE(I112,V112,AI112)</f>
         <v>42.11978074719034</v>
       </c>
-      <c r="J137">
-        <f t="shared" ref="J137:J166" si="52">AVERAGE(J112,W112,AJ112)</f>
+      <c r="J137" s="13">
+        <f t="shared" ref="J137:J155" si="52">AVERAGE(J112,W112,AJ112)</f>
         <v>40.129583777577416</v>
       </c>
-      <c r="K137">
-        <f t="shared" ref="K137:K166" si="53">AVERAGE(K112,X112,AK112)</f>
+      <c r="K137" s="13">
+        <f t="shared" ref="K137:K154" si="53">AVERAGE(K112,X112,AK112)</f>
         <v>899.76515648343332</v>
       </c>
-      <c r="L137">
-        <f t="shared" ref="L137:L166" si="54">AVERAGE(L112,Y112,AL112)</f>
+      <c r="L137" s="13">
+        <f t="shared" ref="L137:L154" si="54">AVERAGE(L112,Y112,AL112)</f>
         <v>2544.129173032803</v>
       </c>
-      <c r="M137">
-        <f t="shared" ref="M137:M166" si="55">AVERAGE(M112,Z112,AM112)</f>
+      <c r="M137" s="13">
+        <f t="shared" ref="M137:M154" si="55">AVERAGE(M112,Z112,AM112)</f>
         <v>556.88384147530462</v>
       </c>
-      <c r="N137">
-        <f t="shared" ref="N137:N166" si="56">AVERAGE(N112,AA112,AN112)</f>
+      <c r="N137" s="13">
+        <f t="shared" ref="N137:N154" si="56">AVERAGE(N112,AA112,AN112)</f>
         <v>466.51482524974381</v>
       </c>
       <c r="P137">
@@ -24788,27 +24777,27 @@
         <v>6.1705729716111453</v>
       </c>
       <c r="V137">
-        <f t="shared" ref="V137:V156" si="63">_xlfn.STDEV.S(I112,V112,AI112)</f>
+        <f t="shared" ref="V137:V155" si="63">_xlfn.STDEV.S(I112,V112,AI112)</f>
         <v>10.153073071205664</v>
       </c>
       <c r="W137">
-        <f t="shared" ref="W137:W156" si="64">_xlfn.STDEV.S(J112,W112,AJ112)</f>
+        <f t="shared" ref="W137:W155" si="64">_xlfn.STDEV.S(J112,W112,AJ112)</f>
         <v>6.4607785609742612</v>
       </c>
       <c r="X137">
-        <f t="shared" ref="X137:X156" si="65">_xlfn.STDEV.S(K112,X112,AK112)</f>
+        <f t="shared" ref="X137:X154" si="65">_xlfn.STDEV.S(K112,X112,AK112)</f>
         <v>200.1208386539378</v>
       </c>
       <c r="Y137">
-        <f t="shared" ref="Y137:Y156" si="66">_xlfn.STDEV.S(L112,Y112,AL112)</f>
+        <f t="shared" ref="Y137:Y154" si="66">_xlfn.STDEV.S(L112,Y112,AL112)</f>
         <v>664.70951493548989</v>
       </c>
       <c r="Z137">
-        <f t="shared" ref="Z137:Z156" si="67">_xlfn.STDEV.S(M112,Z112,AM112)</f>
+        <f t="shared" ref="Z137:Z154" si="67">_xlfn.STDEV.S(M112,Z112,AM112)</f>
         <v>85.499022271720662</v>
       </c>
       <c r="AA137">
-        <f t="shared" ref="AA137:AA156" si="68">_xlfn.STDEV.S(N112,AA112,AN112)</f>
+        <f t="shared" ref="AA137:AA154" si="68">_xlfn.STDEV.S(N112,AA112,AN112)</f>
         <v>76.200203624646036</v>
       </c>
       <c r="AC137">
@@ -24836,27 +24825,27 @@
         <v>76.151941595956004</v>
       </c>
       <c r="AI137">
-        <f t="shared" ref="AI137:AI156" si="75">(V137^2)*2</f>
+        <f t="shared" ref="AI137:AI155" si="75">(V137^2)*2</f>
         <v>206.16978557848324</v>
       </c>
       <c r="AJ137">
-        <f t="shared" ref="AJ137:AJ156" si="76">(W137^2)*2</f>
+        <f t="shared" ref="AJ137:AJ155" si="76">(W137^2)*2</f>
         <v>83.483319227889297</v>
       </c>
       <c r="AK137">
-        <f t="shared" ref="AK137:AK156" si="77">(X137^2)*2</f>
+        <f t="shared" ref="AK137:AK154" si="77">(X137^2)*2</f>
         <v>80096.700127110802</v>
       </c>
       <c r="AL137">
-        <f t="shared" ref="AL137:AL156" si="78">(Y137^2)*2</f>
+        <f t="shared" ref="AL137:AL154" si="78">(Y137^2)*2</f>
         <v>883677.47849154857</v>
       </c>
       <c r="AM137">
-        <f t="shared" ref="AM137:AM156" si="79">(Z137^2)*2</f>
+        <f t="shared" ref="AM137:AM154" si="79">(Z137^2)*2</f>
         <v>14620.165618840372</v>
       </c>
       <c r="AN137">
-        <f t="shared" ref="AN137:AN156" si="80">(AA137^2)*2</f>
+        <f t="shared" ref="AN137:AN154" si="80">(AA137^2)*2</f>
         <v>11612.942064875038</v>
       </c>
       <c r="AP137">
@@ -24912,51 +24901,51 @@
       <c r="B138" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="13">
         <f t="shared" si="45"/>
         <v>960.87320496636676</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="13">
         <f t="shared" si="46"/>
         <v>681.16430495962766</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="13">
         <f t="shared" si="47"/>
         <v>150.68451788459137</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="13">
         <f t="shared" si="48"/>
         <v>909.84299621081618</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="13">
         <f t="shared" si="49"/>
         <v>463.66960083987215</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="13">
         <f t="shared" si="50"/>
         <v>97.539679890686713</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="13">
         <f t="shared" si="51"/>
         <v>898.45217700752471</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="13">
         <f t="shared" si="52"/>
         <v>1053.6573335594626</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="13">
         <f t="shared" si="53"/>
         <v>901.25133088676228</v>
       </c>
-      <c r="L138">
+      <c r="L138" s="13">
         <f t="shared" si="54"/>
         <v>878.59557263782187</v>
       </c>
-      <c r="M138">
+      <c r="M138" s="13">
         <f t="shared" si="55"/>
         <v>994.08819623073589</v>
       </c>
-      <c r="N138">
+      <c r="N138" s="13">
         <f t="shared" si="56"/>
         <v>698.15261040884161</v>
       </c>
@@ -25109,51 +25098,51 @@
       <c r="B139" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="13">
         <f t="shared" si="45"/>
         <v>626.43074096949272</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="13">
         <f t="shared" si="46"/>
         <v>263.71482532579989</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="13">
         <f t="shared" si="47"/>
         <v>396.71845280267854</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="13">
         <f t="shared" si="48"/>
         <v>46.151688540074325</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="13">
         <f t="shared" si="49"/>
         <v>874.4541995444265</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="13">
         <f t="shared" si="50"/>
         <v>740.09337498378409</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="13">
         <f t="shared" si="51"/>
         <v>45.236554058736964</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="13">
         <f t="shared" si="52"/>
         <v>41.032620730181783</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="13">
         <f t="shared" si="53"/>
         <v>413.72125151073442</v>
       </c>
-      <c r="L139">
+      <c r="L139" s="13">
         <f t="shared" si="54"/>
         <v>833.46746112658423</v>
       </c>
-      <c r="M139">
+      <c r="M139" s="13">
         <f t="shared" si="55"/>
         <v>50.885843097902011</v>
       </c>
-      <c r="N139">
+      <c r="N139" s="13">
         <f t="shared" si="56"/>
         <v>49.678151988092772</v>
       </c>
@@ -25306,51 +25295,51 @@
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="13">
         <f t="shared" si="45"/>
         <v>859.12288415680553</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="13">
         <f t="shared" si="46"/>
         <v>806.21355582486376</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="13">
         <f t="shared" si="47"/>
         <v>1069.7808300686431</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="13">
         <f t="shared" si="48"/>
         <v>144.21188113795878</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="13">
         <f t="shared" si="49"/>
         <v>1048.5444416560561</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="13">
         <f t="shared" si="50"/>
         <v>817.20341602239512</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="13">
         <f t="shared" si="51"/>
         <v>173.49876252457429</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="13">
         <f t="shared" si="52"/>
         <v>936.69303859261061</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="13">
         <f t="shared" si="53"/>
         <v>523.39861405164584</v>
       </c>
-      <c r="L140">
+      <c r="L140" s="13">
         <f t="shared" si="54"/>
         <v>880.57086028823107</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="13">
         <f t="shared" si="55"/>
         <v>403.12898554122256</v>
       </c>
-      <c r="N140">
+      <c r="N140" s="13">
         <f t="shared" si="56"/>
         <v>133.99350452510768</v>
       </c>
@@ -25503,51 +25492,51 @@
       <c r="B141" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="13">
         <f t="shared" si="45"/>
         <v>1654.8174901008208</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="13">
         <f t="shared" si="46"/>
         <v>854.28536718946043</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="13">
         <f t="shared" si="47"/>
         <v>1162.6719683932824</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="13">
         <f t="shared" si="48"/>
         <v>1133.6498689181208</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="13">
         <f t="shared" si="49"/>
         <v>1048.6590161837291</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="13">
         <f t="shared" si="50"/>
         <v>51.999483142247151</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="13">
         <f t="shared" si="51"/>
         <v>683.54803138850968</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="13">
         <f t="shared" si="52"/>
         <v>1217.7661235473988</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="13">
         <f t="shared" si="53"/>
         <v>48.841839198555782</v>
       </c>
-      <c r="L141">
+      <c r="L141" s="13">
         <f t="shared" si="54"/>
         <v>126.7069837496753</v>
       </c>
-      <c r="M141">
+      <c r="M141" s="13">
         <f t="shared" si="55"/>
         <v>57.833250344042504</v>
       </c>
-      <c r="N141">
+      <c r="N141" s="13">
         <f t="shared" si="56"/>
         <v>108.8011702830579</v>
       </c>
@@ -25700,51 +25689,51 @@
       <c r="B142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="13">
         <f t="shared" si="45"/>
         <v>62.664309534506401</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="13">
         <f t="shared" si="46"/>
         <v>287.55422846261291</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="13">
         <f t="shared" si="47"/>
         <v>795.39840644296237</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="13">
         <f t="shared" si="48"/>
         <v>404.75738192318613</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="13">
         <f t="shared" si="49"/>
         <v>75.862338431742756</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="13">
         <f t="shared" si="50"/>
         <v>1602.533553646557</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="13">
         <f t="shared" si="51"/>
         <v>1391.1502462429542</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="13">
         <f t="shared" si="52"/>
         <v>56.767478473878498</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="13">
         <f t="shared" si="53"/>
         <v>821.47832156199036</v>
       </c>
-      <c r="L142">
+      <c r="L142" s="13">
         <f t="shared" si="54"/>
         <v>1210.2121784464273</v>
       </c>
-      <c r="M142">
+      <c r="M142" s="13">
         <f t="shared" si="55"/>
         <v>939.43910981004228</v>
       </c>
-      <c r="N142">
+      <c r="N142" s="13">
         <f t="shared" si="56"/>
         <v>716.35563954627469</v>
       </c>
@@ -25897,51 +25886,51 @@
       <c r="B143" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="13">
         <f t="shared" si="45"/>
         <v>1379.141916040586</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="13">
         <f t="shared" si="46"/>
         <v>84.534425383051328</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="13">
         <f t="shared" si="47"/>
         <v>991.06047895433983</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="13">
         <f t="shared" si="48"/>
         <v>360.18361990767545</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="13">
         <f t="shared" si="49"/>
         <v>1056.7592572170481</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="13">
         <f t="shared" si="50"/>
         <v>1173.9543330753836</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="13">
         <f t="shared" si="51"/>
         <v>1430.8967095730829</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="13">
         <f t="shared" si="52"/>
         <v>236.91913031174042</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="13">
         <f t="shared" si="53"/>
         <v>1383.7162087122967</v>
       </c>
-      <c r="L143">
+      <c r="L143" s="13">
         <f t="shared" si="54"/>
         <v>1543.8856078830916</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="13">
         <f t="shared" si="55"/>
         <v>1086.8873619223366</v>
       </c>
-      <c r="N143">
+      <c r="N143" s="13">
         <f t="shared" si="56"/>
         <v>69.414842254962551</v>
       </c>
@@ -26094,51 +26083,51 @@
       <c r="B144" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="13">
         <f t="shared" si="45"/>
         <v>918.48958422916439</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="13">
         <f t="shared" si="46"/>
         <v>912.94675500473716</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="13">
         <f t="shared" si="47"/>
         <v>888.18108251646083</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="13">
         <f t="shared" si="48"/>
         <v>49.201493579388206</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="13">
         <f t="shared" si="49"/>
         <v>72.531014913590028</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="13">
         <f t="shared" si="50"/>
         <v>109.59352584695762</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="13">
         <f t="shared" si="51"/>
         <v>737.40915680089017</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="13">
         <f t="shared" si="52"/>
         <v>1452.3159624388693</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="13">
         <f t="shared" si="53"/>
         <v>280.91946713521736</v>
       </c>
-      <c r="L144">
+      <c r="L144" s="13">
         <f t="shared" si="54"/>
         <v>34.942358723334898</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="13">
         <f t="shared" si="55"/>
         <v>777.36766339499025</v>
       </c>
-      <c r="N144">
+      <c r="N144" s="13">
         <f t="shared" si="56"/>
         <v>43.051370449839048</v>
       </c>
@@ -26291,51 +26280,51 @@
       <c r="B145" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="13">
         <f t="shared" si="45"/>
         <v>1221.1612756225695</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="13">
         <f t="shared" si="46"/>
         <v>1144.959186499276</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="13">
         <f t="shared" si="47"/>
         <v>944.11113348683011</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="13">
         <f t="shared" si="48"/>
         <v>1793.9671689112276</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="13">
         <f t="shared" si="49"/>
         <v>47.60009691862539</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="13">
         <f t="shared" si="50"/>
         <v>1403.8799927580224</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="13">
         <f t="shared" si="51"/>
         <v>1154.6446623322402</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="13">
         <f t="shared" si="52"/>
         <v>44.49619601567764</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="13">
         <f t="shared" si="53"/>
         <v>890.72153933214361</v>
       </c>
-      <c r="L145">
+      <c r="L145" s="13">
         <f t="shared" si="54"/>
         <v>1034.6722885409417</v>
       </c>
-      <c r="M145">
+      <c r="M145" s="13">
         <f t="shared" si="55"/>
         <v>774.34744825152529</v>
       </c>
-      <c r="N145">
+      <c r="N145" s="13">
         <f t="shared" si="56"/>
         <v>39.665630328755093</v>
       </c>
@@ -26488,51 +26477,51 @@
       <c r="B146" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="13">
         <f t="shared" si="45"/>
         <v>2535.112088311786</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="13">
         <f t="shared" si="46"/>
         <v>47.939194562922218</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="13">
         <f t="shared" si="47"/>
         <v>248.46347082554561</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="13">
         <f t="shared" si="48"/>
         <v>509.63536919318739</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="13">
         <f t="shared" si="49"/>
         <v>48.254246868364788</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="13">
         <f t="shared" si="50"/>
         <v>69.532901721885381</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="13">
         <f t="shared" si="51"/>
         <v>48.986655595101126</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="13">
         <f t="shared" si="52"/>
         <v>332.4490110476699</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="13">
         <f t="shared" si="53"/>
         <v>46.533132957918582</v>
       </c>
-      <c r="L146">
+      <c r="L146" s="13">
         <f t="shared" si="54"/>
         <v>46.089335629177633</v>
       </c>
-      <c r="M146">
+      <c r="M146" s="13">
         <f t="shared" si="55"/>
         <v>159.22040999381917</v>
       </c>
-      <c r="N146">
+      <c r="N146" s="13">
         <f t="shared" si="56"/>
         <v>780.89600028795246</v>
       </c>
@@ -26685,51 +26674,51 @@
       <c r="B147" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="13">
         <f t="shared" si="45"/>
         <v>41.357007490033958</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="13">
         <f t="shared" si="46"/>
         <v>98.153603605062514</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="13">
         <f t="shared" si="47"/>
         <v>71.403408306266371</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="13">
         <f t="shared" si="48"/>
         <v>46.213886420877692</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="13">
         <f t="shared" si="49"/>
         <v>41.75456447107652</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="13">
         <f t="shared" si="50"/>
         <v>359.04692497639218</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="13">
         <f t="shared" si="51"/>
         <v>3119.4707950333436</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="13">
         <f t="shared" si="52"/>
         <v>2192.7460981222075</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="13">
         <f t="shared" si="53"/>
         <v>883.83518763638187</v>
       </c>
-      <c r="L147">
+      <c r="L147" s="13">
         <f t="shared" si="54"/>
         <v>39.870176721018538</v>
       </c>
-      <c r="M147">
+      <c r="M147" s="13">
         <f t="shared" si="55"/>
         <v>667.20764189072258</v>
       </c>
-      <c r="N147">
+      <c r="N147" s="13">
         <f t="shared" si="56"/>
         <v>42.389568394794019</v>
       </c>
@@ -26882,51 +26871,51 @@
       <c r="B148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="13">
         <f t="shared" si="45"/>
         <v>58.179548747217474</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="13">
         <f t="shared" si="46"/>
         <v>40.914484577829711</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="13">
         <f t="shared" si="47"/>
         <v>39.362682652794781</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="13">
         <f t="shared" si="48"/>
         <v>46.776085904799196</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="13">
         <f t="shared" si="49"/>
         <v>45.947721782671131</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="13">
         <f t="shared" si="50"/>
         <v>1549.8621028760599</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="13">
         <f t="shared" si="51"/>
         <v>107.88799005739342</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="13">
         <f t="shared" si="52"/>
         <v>644.99033125583128</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="13">
         <f t="shared" si="53"/>
         <v>46.243359507966126</v>
       </c>
-      <c r="L148">
+      <c r="L148" s="13">
         <f t="shared" si="54"/>
         <v>644.96956663889148</v>
       </c>
-      <c r="M148">
+      <c r="M148" s="13">
         <f t="shared" si="55"/>
         <v>57.668495395118747</v>
       </c>
-      <c r="N148">
+      <c r="N148" s="13">
         <f t="shared" si="56"/>
         <v>153.34087604686161</v>
       </c>
@@ -27079,51 +27068,51 @@
       <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="13">
         <f t="shared" si="45"/>
         <v>45.083143441034053</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="13">
         <f t="shared" si="46"/>
         <v>48.794102673204975</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="13">
         <f t="shared" si="47"/>
         <v>273.32373249485954</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="13">
         <f t="shared" si="48"/>
         <v>82.730522616526329</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="13">
         <f t="shared" si="49"/>
         <v>436.14871044741312</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="13">
         <f t="shared" si="50"/>
         <v>62.998579950022112</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="13">
         <f t="shared" si="51"/>
         <v>40.322279541595428</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="13">
         <f t="shared" si="52"/>
         <v>1323.884480240655</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="13">
         <f t="shared" si="53"/>
         <v>894.16243200627559</v>
       </c>
-      <c r="L149">
+      <c r="L149" s="13">
         <f t="shared" si="54"/>
         <v>39.470138635567196</v>
       </c>
-      <c r="M149">
+      <c r="M149" s="13">
         <f t="shared" si="55"/>
         <v>53.608171337929015</v>
       </c>
-      <c r="N149">
+      <c r="N149" s="13">
         <f t="shared" si="56"/>
         <v>1633.6627819865835</v>
       </c>
@@ -27276,51 +27265,51 @@
       <c r="B150" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="13">
         <f t="shared" si="45"/>
         <v>48.45102044709413</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="13">
         <f t="shared" si="46"/>
         <v>46.825454507164601</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="13">
         <f t="shared" si="47"/>
         <v>42.319725618950692</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="13">
         <f t="shared" si="48"/>
         <v>340.3502547787071</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="13">
         <f t="shared" si="49"/>
         <v>1007.5569933262137</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="13">
         <f t="shared" si="50"/>
         <v>1053.7436060962691</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="13">
         <f t="shared" si="51"/>
         <v>808.94475565205857</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="13">
         <f t="shared" si="52"/>
         <v>61.463325252796324</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="13">
         <f t="shared" si="53"/>
         <v>50.986864617346946</v>
       </c>
-      <c r="L150">
+      <c r="L150" s="13">
         <f t="shared" si="54"/>
         <v>510.72048531466527</v>
       </c>
-      <c r="M150">
+      <c r="M150" s="13">
         <f t="shared" si="55"/>
         <v>46.719881385790295</v>
       </c>
-      <c r="N150">
+      <c r="N150" s="13">
         <f t="shared" si="56"/>
         <v>70.529708303371521</v>
       </c>
@@ -27473,51 +27462,51 @@
       <c r="B151" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="13">
         <f t="shared" si="45"/>
         <v>52.493075580822108</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="13">
         <f t="shared" si="46"/>
         <v>61.779922876082878</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="13">
         <f t="shared" si="47"/>
         <v>41.470169115153446</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="13">
         <f t="shared" si="48"/>
         <v>924.58961053130827</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="13">
         <f t="shared" si="49"/>
         <v>767.38326361605107</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="13">
         <f t="shared" si="50"/>
         <v>33.114503584391066</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="13">
         <f t="shared" si="51"/>
         <v>58.320568780023017</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="13">
         <f t="shared" si="52"/>
         <v>47.38485283725803</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="13">
         <f t="shared" si="53"/>
         <v>341.84418296598602</v>
       </c>
-      <c r="L151">
+      <c r="L151" s="13">
         <f t="shared" si="54"/>
         <v>52.576344091154709</v>
       </c>
-      <c r="M151">
+      <c r="M151" s="13">
         <f t="shared" si="55"/>
         <v>1644.6027397460275</v>
       </c>
-      <c r="N151">
+      <c r="N151" s="13">
         <f t="shared" si="56"/>
         <v>1134.6917273387401</v>
       </c>
@@ -27670,51 +27659,51 @@
       <c r="B152" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="13">
         <f t="shared" si="45"/>
         <v>159.39653058450256</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="13">
         <f t="shared" si="46"/>
         <v>56.337629829247668</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="13">
         <f t="shared" si="47"/>
         <v>134.16721332392331</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="13">
         <f t="shared" si="48"/>
         <v>862.7469776658512</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="13">
         <f t="shared" si="49"/>
         <v>57.222735016663513</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="13">
         <f t="shared" si="50"/>
         <v>722.74056811763978</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="13">
         <f t="shared" si="51"/>
         <v>508.12320467771048</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="13">
         <f t="shared" si="52"/>
         <v>70.641006015865898</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="13">
         <f t="shared" si="53"/>
         <v>214.0104447008562</v>
       </c>
-      <c r="L152">
+      <c r="L152" s="13">
         <f t="shared" si="54"/>
         <v>47.573853752079032</v>
       </c>
-      <c r="M152">
+      <c r="M152" s="13">
         <f t="shared" si="55"/>
         <v>684.99955521175013</v>
       </c>
-      <c r="N152">
+      <c r="N152" s="13">
         <f t="shared" si="56"/>
         <v>1104.0616533123716</v>
       </c>
@@ -27867,51 +27856,51 @@
       <c r="B153" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="13">
         <f t="shared" si="45"/>
         <v>48.662417407589601</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="13">
         <f t="shared" si="46"/>
         <v>36.858325142493698</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="13">
         <f t="shared" si="47"/>
         <v>60.824390712964288</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="13">
         <f t="shared" si="48"/>
         <v>949.18973402171366</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="13">
         <f t="shared" si="49"/>
         <v>1042.4557822055333</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="13">
         <f t="shared" si="50"/>
         <v>863.27337523643826</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="13">
         <f t="shared" si="51"/>
         <v>874.32943766120013</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="13">
         <f t="shared" si="52"/>
         <v>115.40766887758656</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="13">
         <f t="shared" si="53"/>
         <v>776.28106474778861</v>
       </c>
-      <c r="L153">
+      <c r="L153" s="13">
         <f t="shared" si="54"/>
         <v>231.92682931989995</v>
       </c>
-      <c r="M153">
+      <c r="M153" s="13">
         <f t="shared" si="55"/>
         <v>748.1023542734107</v>
       </c>
-      <c r="N153">
+      <c r="N153" s="13">
         <f t="shared" si="56"/>
         <v>1023.340124396345</v>
       </c>
@@ -28064,51 +28053,51 @@
       <c r="B154" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="13">
         <f t="shared" si="45"/>
         <v>626.63092684517039</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="13">
         <f t="shared" si="46"/>
         <v>882.28373659871579</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="13">
         <f t="shared" si="47"/>
         <v>137.83668273336502</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="13">
         <f t="shared" si="48"/>
         <v>1097.6864576978558</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="13">
         <f t="shared" si="49"/>
         <v>53.003074948386733</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="13">
         <f t="shared" si="50"/>
         <v>819.82817409632423</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="13">
         <f t="shared" si="51"/>
         <v>994.21398339623045</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="13">
         <f t="shared" si="52"/>
         <v>554.85004877297717</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="13">
         <f t="shared" si="53"/>
         <v>928.71431518442296</v>
       </c>
-      <c r="L154">
+      <c r="L154" s="13">
         <f t="shared" si="54"/>
         <v>35.382065579989408</v>
       </c>
-      <c r="M154">
+      <c r="M154" s="13">
         <f t="shared" si="55"/>
         <v>38.063106044208887</v>
       </c>
-      <c r="N154">
+      <c r="N154" s="13">
         <f t="shared" si="56"/>
         <v>812.66059543265158</v>
       </c>
@@ -28261,38 +28250,42 @@
       <c r="B155" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="13">
         <f t="shared" si="45"/>
         <v>1018.0045896872829</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="13">
         <f t="shared" si="46"/>
         <v>56.825508729438475</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="13">
         <f t="shared" si="47"/>
         <v>108.10901850353189</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="13">
         <f t="shared" si="48"/>
         <v>1085.1082932694783</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="13">
         <f t="shared" si="49"/>
         <v>1081.1684344743312</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="13">
         <f t="shared" si="50"/>
         <v>63.855177181234119</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="13">
         <f t="shared" si="51"/>
         <v>340.43823392808309</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="13">
         <f t="shared" si="52"/>
         <v>1179.6195213044593</v>
       </c>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="13"/>
       <c r="P155">
         <f t="shared" si="57"/>
         <v>310.68863100381247</v>
@@ -28394,30 +28387,36 @@
       <c r="B156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="13">
         <f t="shared" si="45"/>
         <v>830.71760292800764</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="13">
         <f t="shared" si="46"/>
         <v>3070.3170161991911</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="13">
         <f t="shared" si="47"/>
         <v>111.73101435381415</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="13">
         <f t="shared" si="48"/>
         <v>103.72666975955275</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="13">
         <f t="shared" si="49"/>
         <v>130.38718634946005</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="13">
         <f t="shared" si="50"/>
         <v>25.975217448794339</v>
       </c>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
       <c r="P156">
         <f t="shared" si="57"/>
         <v>285.66007977615379</v>
@@ -28492,8 +28491,11 @@
       </c>
     </row>
     <row r="158" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="P158" s="4" t="s">
-        <v>40</v>
+      <c r="Q158" t="s">
+        <v>48</v>
+      </c>
+      <c r="X158" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="2:53" x14ac:dyDescent="0.35">
@@ -28501,7 +28503,7 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -28514,11 +28516,15 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="P159">
+      <c r="Q159">
+        <f>AVERAGE(P136:AA156)</f>
+        <v>179.90467909541755</v>
+      </c>
+      <c r="X159">
         <f>(SUM(AC136:AN154,AC155:AJ155,AC156:AH156)/SUM(AP136:BA154,AP155:AW155,AP156:AU156))^0.5</f>
         <v>286.24477432036861</v>
       </c>
-      <c r="S159" t="s">
+      <c r="AA159" t="s">
         <v>23</v>
       </c>
     </row>
@@ -29404,7 +29410,7 @@
     </row>
     <row r="184" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185" spans="2:14" x14ac:dyDescent="0.35">
@@ -30457,7 +30463,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="12">
-        <f t="shared" ref="C205:N205" si="100">C155/$C$156</f>
+        <f t="shared" ref="C205:J205" si="100">C155/$C$156</f>
         <v>1.22545205025047</v>
       </c>
       <c r="D205" s="12">
@@ -30498,7 +30504,7 @@
         <v>0</v>
       </c>
       <c r="C206" s="12">
-        <f t="shared" ref="C206:N206" si="101">C156/$C$156</f>
+        <f t="shared" ref="C206:H206" si="101">C156/$C$156</f>
         <v>1</v>
       </c>
       <c r="D206" s="12">
